--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -277,24 +277,24 @@
     <t>New York City</t>
   </si>
   <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>Sporting KC</t>
+  </si>
+  <si>
+    <t>Minnesota United</t>
+  </si>
+  <si>
+    <t>Real Salt Lake</t>
+  </si>
+  <si>
     <t>Houston Dynamo</t>
   </si>
   <si>
-    <t>Toronto</t>
-  </si>
-  <si>
     <t>Montreal Impact</t>
   </si>
   <si>
-    <t>Minnesota United</t>
-  </si>
-  <si>
-    <t>Real Salt Lake</t>
-  </si>
-  <si>
-    <t>Sporting KC</t>
-  </si>
-  <si>
     <t>LA Galaxy</t>
   </si>
   <si>
@@ -367,6 +367,36 @@
     <t>['68', '77']</t>
   </si>
   <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['37', '89']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['78']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -407,6 +437,24 @@
   </si>
   <si>
     <t>['17']</t>
+  </si>
+  <si>
+    <t>['5', '12', '45+2']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['9', '33']</t>
+  </si>
+  <si>
+    <t>['45+1', '75']</t>
   </si>
 </sst>
 </file>
@@ -768,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK28"/>
+  <dimension ref="A1:BK41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1203,7 +1251,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1394,7 +1442,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1561,7 +1609,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1585,7 +1633,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1752,7 +1800,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1776,7 +1824,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1863,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT6">
         <v>0.5</v>
@@ -1943,7 +1991,7 @@
         <v>70</v>
       </c>
       <c r="H7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2248,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2349,7 +2397,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2439,7 +2487,7 @@
         <v>3</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2540,7 +2588,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -2707,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2731,7 +2779,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2898,7 +2946,7 @@
         <v>75</v>
       </c>
       <c r="H12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -2922,7 +2970,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3009,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT12">
         <v>1.5</v>
@@ -3280,7 +3328,7 @@
         <v>77</v>
       </c>
       <c r="H14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3391,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3495,7 +3543,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3662,7 +3710,7 @@
         <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -3686,7 +3734,7 @@
         <v>107</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -4235,7 +4283,7 @@
         <v>80</v>
       </c>
       <c r="H19" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -4808,7 +4856,7 @@
         <v>73</v>
       </c>
       <c r="H22" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -5023,7 +5071,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5214,7 +5262,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5304,7 +5352,7 @@
         <v>1.5</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -5405,7 +5453,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -5572,7 +5620,7 @@
         <v>84</v>
       </c>
       <c r="H26" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -5763,7 +5811,7 @@
         <v>76</v>
       </c>
       <c r="H27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5978,7 +6026,7 @@
         <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -6120,6 +6168,2489 @@
       </c>
       <c r="BK28">
         <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>4925965</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q29">
+        <v>5</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29">
+        <v>9</v>
+      </c>
+      <c r="T29">
+        <v>2.75</v>
+      </c>
+      <c r="U29">
+        <v>2.25</v>
+      </c>
+      <c r="V29">
+        <v>3.3</v>
+      </c>
+      <c r="W29">
+        <v>1.31</v>
+      </c>
+      <c r="X29">
+        <v>3.28</v>
+      </c>
+      <c r="Y29">
+        <v>2.44</v>
+      </c>
+      <c r="Z29">
+        <v>1.52</v>
+      </c>
+      <c r="AA29">
+        <v>5.75</v>
+      </c>
+      <c r="AB29">
+        <v>1.12</v>
+      </c>
+      <c r="AC29">
+        <v>2.13</v>
+      </c>
+      <c r="AD29">
+        <v>3.5</v>
+      </c>
+      <c r="AE29">
+        <v>2.97</v>
+      </c>
+      <c r="AF29">
+        <v>1.04</v>
+      </c>
+      <c r="AG29">
+        <v>15.25</v>
+      </c>
+      <c r="AH29">
+        <v>1.21</v>
+      </c>
+      <c r="AI29">
+        <v>4.45</v>
+      </c>
+      <c r="AJ29">
+        <v>1.66</v>
+      </c>
+      <c r="AK29">
+        <v>2.06</v>
+      </c>
+      <c r="AL29">
+        <v>1.56</v>
+      </c>
+      <c r="AM29">
+        <v>2.36</v>
+      </c>
+      <c r="AN29">
+        <v>1.4</v>
+      </c>
+      <c r="AO29">
+        <v>1.32</v>
+      </c>
+      <c r="AP29">
+        <v>1.6</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>3</v>
+      </c>
+      <c r="AU29">
+        <v>1.85</v>
+      </c>
+      <c r="AV29">
+        <v>0</v>
+      </c>
+      <c r="AW29">
+        <v>1.85</v>
+      </c>
+      <c r="AX29">
+        <v>1.7</v>
+      </c>
+      <c r="AY29">
+        <v>7.5</v>
+      </c>
+      <c r="AZ29">
+        <v>2.55</v>
+      </c>
+      <c r="BA29">
+        <v>1.17</v>
+      </c>
+      <c r="BB29">
+        <v>1.32</v>
+      </c>
+      <c r="BC29">
+        <v>1.58</v>
+      </c>
+      <c r="BD29">
+        <v>2</v>
+      </c>
+      <c r="BE29">
+        <v>2.6</v>
+      </c>
+      <c r="BF29">
+        <v>4</v>
+      </c>
+      <c r="BG29">
+        <v>6</v>
+      </c>
+      <c r="BH29">
+        <v>6</v>
+      </c>
+      <c r="BI29">
+        <v>3</v>
+      </c>
+      <c r="BJ29">
+        <v>10</v>
+      </c>
+      <c r="BK29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>4925966</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>44996.79166666666</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" t="s">
+        <v>74</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>117</v>
+      </c>
+      <c r="P30" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>13</v>
+      </c>
+      <c r="T30">
+        <v>2.96</v>
+      </c>
+      <c r="U30">
+        <v>2.15</v>
+      </c>
+      <c r="V30">
+        <v>3.54</v>
+      </c>
+      <c r="W30">
+        <v>1.38</v>
+      </c>
+      <c r="X30">
+        <v>2.91</v>
+      </c>
+      <c r="Y30">
+        <v>2.75</v>
+      </c>
+      <c r="Z30">
+        <v>1.42</v>
+      </c>
+      <c r="AA30">
+        <v>6.9</v>
+      </c>
+      <c r="AB30">
+        <v>1.08</v>
+      </c>
+      <c r="AC30">
+        <v>2.31</v>
+      </c>
+      <c r="AD30">
+        <v>3.21</v>
+      </c>
+      <c r="AE30">
+        <v>2.59</v>
+      </c>
+      <c r="AF30">
+        <v>1.06</v>
+      </c>
+      <c r="AG30">
+        <v>11.25</v>
+      </c>
+      <c r="AH30">
+        <v>1.3</v>
+      </c>
+      <c r="AI30">
+        <v>3.55</v>
+      </c>
+      <c r="AJ30">
+        <v>1.8</v>
+      </c>
+      <c r="AK30">
+        <v>1.8</v>
+      </c>
+      <c r="AL30">
+        <v>1.75</v>
+      </c>
+      <c r="AM30">
+        <v>2.12</v>
+      </c>
+      <c r="AN30">
+        <v>1.42</v>
+      </c>
+      <c r="AO30">
+        <v>1.35</v>
+      </c>
+      <c r="AP30">
+        <v>1.58</v>
+      </c>
+      <c r="AQ30">
+        <v>0</v>
+      </c>
+      <c r="AR30">
+        <v>0</v>
+      </c>
+      <c r="AS30">
+        <v>0.5</v>
+      </c>
+      <c r="AT30">
+        <v>1</v>
+      </c>
+      <c r="AU30">
+        <v>2.28</v>
+      </c>
+      <c r="AV30">
+        <v>0</v>
+      </c>
+      <c r="AW30">
+        <v>2.28</v>
+      </c>
+      <c r="AX30">
+        <v>1.71</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>2.55</v>
+      </c>
+      <c r="BA30">
+        <v>1.24</v>
+      </c>
+      <c r="BB30">
+        <v>1.44</v>
+      </c>
+      <c r="BC30">
+        <v>1.8</v>
+      </c>
+      <c r="BD30">
+        <v>2.3</v>
+      </c>
+      <c r="BE30">
+        <v>3.15</v>
+      </c>
+      <c r="BF30">
+        <v>5</v>
+      </c>
+      <c r="BG30">
+        <v>2</v>
+      </c>
+      <c r="BH30">
+        <v>5</v>
+      </c>
+      <c r="BI30">
+        <v>6</v>
+      </c>
+      <c r="BJ30">
+        <v>10</v>
+      </c>
+      <c r="BK30">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>4925967</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" t="s">
+        <v>76</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>118</v>
+      </c>
+      <c r="P31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31">
+        <v>5</v>
+      </c>
+      <c r="R31">
+        <v>3</v>
+      </c>
+      <c r="S31">
+        <v>8</v>
+      </c>
+      <c r="T31">
+        <v>2.5</v>
+      </c>
+      <c r="U31">
+        <v>2.3</v>
+      </c>
+      <c r="V31">
+        <v>3.75</v>
+      </c>
+      <c r="W31">
+        <v>1.33</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>2.4</v>
+      </c>
+      <c r="Z31">
+        <v>1.5</v>
+      </c>
+      <c r="AA31">
+        <v>5.5</v>
+      </c>
+      <c r="AB31">
+        <v>1.11</v>
+      </c>
+      <c r="AC31">
+        <v>1.73</v>
+      </c>
+      <c r="AD31">
+        <v>3.46</v>
+      </c>
+      <c r="AE31">
+        <v>3.79</v>
+      </c>
+      <c r="AF31">
+        <v>1.04</v>
+      </c>
+      <c r="AG31">
+        <v>15</v>
+      </c>
+      <c r="AH31">
+        <v>1.22</v>
+      </c>
+      <c r="AI31">
+        <v>3.8</v>
+      </c>
+      <c r="AJ31">
+        <v>1.71</v>
+      </c>
+      <c r="AK31">
+        <v>1.9</v>
+      </c>
+      <c r="AL31">
+        <v>1.62</v>
+      </c>
+      <c r="AM31">
+        <v>2.2</v>
+      </c>
+      <c r="AN31">
+        <v>1.35</v>
+      </c>
+      <c r="AO31">
+        <v>1.25</v>
+      </c>
+      <c r="AP31">
+        <v>1.78</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>0</v>
+      </c>
+      <c r="AS31">
+        <v>3</v>
+      </c>
+      <c r="AT31">
+        <v>0</v>
+      </c>
+      <c r="AU31">
+        <v>1.7</v>
+      </c>
+      <c r="AV31">
+        <v>0</v>
+      </c>
+      <c r="AW31">
+        <v>1.7</v>
+      </c>
+      <c r="AX31">
+        <v>1.58</v>
+      </c>
+      <c r="AY31">
+        <v>7.5</v>
+      </c>
+      <c r="AZ31">
+        <v>2.88</v>
+      </c>
+      <c r="BA31">
+        <v>1.25</v>
+      </c>
+      <c r="BB31">
+        <v>1.47</v>
+      </c>
+      <c r="BC31">
+        <v>1.85</v>
+      </c>
+      <c r="BD31">
+        <v>2.38</v>
+      </c>
+      <c r="BE31">
+        <v>3.25</v>
+      </c>
+      <c r="BF31">
+        <v>3</v>
+      </c>
+      <c r="BG31">
+        <v>2</v>
+      </c>
+      <c r="BH31">
+        <v>4</v>
+      </c>
+      <c r="BI31">
+        <v>5</v>
+      </c>
+      <c r="BJ31">
+        <v>7</v>
+      </c>
+      <c r="BK31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4925968</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32" t="s">
+        <v>69</v>
+      </c>
+      <c r="H32" t="s">
+        <v>71</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32" t="s">
+        <v>119</v>
+      </c>
+      <c r="P32" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>2.9</v>
+      </c>
+      <c r="U32">
+        <v>2.15</v>
+      </c>
+      <c r="V32">
+        <v>3.4</v>
+      </c>
+      <c r="W32">
+        <v>1.36</v>
+      </c>
+      <c r="X32">
+        <v>2.88</v>
+      </c>
+      <c r="Y32">
+        <v>2.62</v>
+      </c>
+      <c r="Z32">
+        <v>1.42</v>
+      </c>
+      <c r="AA32">
+        <v>6</v>
+      </c>
+      <c r="AB32">
+        <v>1.09</v>
+      </c>
+      <c r="AC32">
+        <v>2.31</v>
+      </c>
+      <c r="AD32">
+        <v>3.27</v>
+      </c>
+      <c r="AE32">
+        <v>2.55</v>
+      </c>
+      <c r="AF32">
+        <v>1.05</v>
+      </c>
+      <c r="AG32">
+        <v>12.25</v>
+      </c>
+      <c r="AH32">
+        <v>1.25</v>
+      </c>
+      <c r="AI32">
+        <v>3.6</v>
+      </c>
+      <c r="AJ32">
+        <v>1.79</v>
+      </c>
+      <c r="AK32">
+        <v>1.95</v>
+      </c>
+      <c r="AL32">
+        <v>1.65</v>
+      </c>
+      <c r="AM32">
+        <v>2.1</v>
+      </c>
+      <c r="AN32">
+        <v>1.44</v>
+      </c>
+      <c r="AO32">
+        <v>1.3</v>
+      </c>
+      <c r="AP32">
+        <v>1.57</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>0</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>1</v>
+      </c>
+      <c r="AU32">
+        <v>1.43</v>
+      </c>
+      <c r="AV32">
+        <v>0</v>
+      </c>
+      <c r="AW32">
+        <v>1.43</v>
+      </c>
+      <c r="AX32">
+        <v>1.73</v>
+      </c>
+      <c r="AY32">
+        <v>7</v>
+      </c>
+      <c r="AZ32">
+        <v>2.55</v>
+      </c>
+      <c r="BA32">
+        <v>1.37</v>
+      </c>
+      <c r="BB32">
+        <v>1.67</v>
+      </c>
+      <c r="BC32">
+        <v>2.16</v>
+      </c>
+      <c r="BD32">
+        <v>2.95</v>
+      </c>
+      <c r="BE32">
+        <v>4.1</v>
+      </c>
+      <c r="BF32">
+        <v>6</v>
+      </c>
+      <c r="BG32">
+        <v>5</v>
+      </c>
+      <c r="BH32">
+        <v>7</v>
+      </c>
+      <c r="BI32">
+        <v>3</v>
+      </c>
+      <c r="BJ32">
+        <v>13</v>
+      </c>
+      <c r="BK32">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:63">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4925969</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>64</v>
+      </c>
+      <c r="E33" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="H33" t="s">
+        <v>70</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>120</v>
+      </c>
+      <c r="P33" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q33">
+        <v>2</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33">
+        <v>4</v>
+      </c>
+      <c r="T33">
+        <v>2.3</v>
+      </c>
+      <c r="U33">
+        <v>2.25</v>
+      </c>
+      <c r="V33">
+        <v>4.5</v>
+      </c>
+      <c r="W33">
+        <v>1.33</v>
+      </c>
+      <c r="X33">
+        <v>3</v>
+      </c>
+      <c r="Y33">
+        <v>2.6</v>
+      </c>
+      <c r="Z33">
+        <v>1.44</v>
+      </c>
+      <c r="AA33">
+        <v>5.75</v>
+      </c>
+      <c r="AB33">
+        <v>1.1</v>
+      </c>
+      <c r="AC33">
+        <v>1.61</v>
+      </c>
+      <c r="AD33">
+        <v>3.54</v>
+      </c>
+      <c r="AE33">
+        <v>4.43</v>
+      </c>
+      <c r="AF33">
+        <v>1.04</v>
+      </c>
+      <c r="AG33">
+        <v>8.5</v>
+      </c>
+      <c r="AH33">
+        <v>1.25</v>
+      </c>
+      <c r="AI33">
+        <v>3.6</v>
+      </c>
+      <c r="AJ33">
+        <v>1.8</v>
+      </c>
+      <c r="AK33">
+        <v>1.8</v>
+      </c>
+      <c r="AL33">
+        <v>1.73</v>
+      </c>
+      <c r="AM33">
+        <v>2</v>
+      </c>
+      <c r="AN33">
+        <v>1.22</v>
+      </c>
+      <c r="AO33">
+        <v>1.29</v>
+      </c>
+      <c r="AP33">
+        <v>2</v>
+      </c>
+      <c r="AQ33">
+        <v>0</v>
+      </c>
+      <c r="AR33">
+        <v>0</v>
+      </c>
+      <c r="AS33">
+        <v>3</v>
+      </c>
+      <c r="AT33">
+        <v>0</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>0</v>
+      </c>
+      <c r="AX33">
+        <v>1.43</v>
+      </c>
+      <c r="AY33">
+        <v>8</v>
+      </c>
+      <c r="AZ33">
+        <v>3.5</v>
+      </c>
+      <c r="BA33">
+        <v>1.25</v>
+      </c>
+      <c r="BB33">
+        <v>1.47</v>
+      </c>
+      <c r="BC33">
+        <v>1.85</v>
+      </c>
+      <c r="BD33">
+        <v>2.38</v>
+      </c>
+      <c r="BE33">
+        <v>3.25</v>
+      </c>
+      <c r="BF33">
+        <v>8</v>
+      </c>
+      <c r="BG33">
+        <v>4</v>
+      </c>
+      <c r="BH33">
+        <v>4</v>
+      </c>
+      <c r="BI33">
+        <v>2</v>
+      </c>
+      <c r="BJ33">
+        <v>12</v>
+      </c>
+      <c r="BK33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:63">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4925970</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" t="s">
+        <v>82</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>121</v>
+      </c>
+      <c r="P34" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q34">
+        <v>6</v>
+      </c>
+      <c r="R34">
+        <v>2</v>
+      </c>
+      <c r="S34">
+        <v>8</v>
+      </c>
+      <c r="T34">
+        <v>1.91</v>
+      </c>
+      <c r="U34">
+        <v>2.5</v>
+      </c>
+      <c r="V34">
+        <v>5.75</v>
+      </c>
+      <c r="W34">
+        <v>1.29</v>
+      </c>
+      <c r="X34">
+        <v>3.3</v>
+      </c>
+      <c r="Y34">
+        <v>2.25</v>
+      </c>
+      <c r="Z34">
+        <v>1.57</v>
+      </c>
+      <c r="AA34">
+        <v>5</v>
+      </c>
+      <c r="AB34">
+        <v>1.13</v>
+      </c>
+      <c r="AC34">
+        <v>1.35</v>
+      </c>
+      <c r="AD34">
+        <v>4.28</v>
+      </c>
+      <c r="AE34">
+        <v>6.33</v>
+      </c>
+      <c r="AF34">
+        <v>1.03</v>
+      </c>
+      <c r="AG34">
+        <v>19.25</v>
+      </c>
+      <c r="AH34">
+        <v>1.18</v>
+      </c>
+      <c r="AI34">
+        <v>4.33</v>
+      </c>
+      <c r="AJ34">
+        <v>1.55</v>
+      </c>
+      <c r="AK34">
+        <v>2.33</v>
+      </c>
+      <c r="AL34">
+        <v>1.73</v>
+      </c>
+      <c r="AM34">
+        <v>2</v>
+      </c>
+      <c r="AN34">
+        <v>1.13</v>
+      </c>
+      <c r="AO34">
+        <v>1.2</v>
+      </c>
+      <c r="AP34">
+        <v>2.63</v>
+      </c>
+      <c r="AQ34">
+        <v>3</v>
+      </c>
+      <c r="AR34">
+        <v>0</v>
+      </c>
+      <c r="AS34">
+        <v>3</v>
+      </c>
+      <c r="AT34">
+        <v>0</v>
+      </c>
+      <c r="AU34">
+        <v>1.59</v>
+      </c>
+      <c r="AV34">
+        <v>0</v>
+      </c>
+      <c r="AW34">
+        <v>1.59</v>
+      </c>
+      <c r="AX34">
+        <v>1.24</v>
+      </c>
+      <c r="AY34">
+        <v>9</v>
+      </c>
+      <c r="AZ34">
+        <v>4.9</v>
+      </c>
+      <c r="BA34">
+        <v>1.28</v>
+      </c>
+      <c r="BB34">
+        <v>1.5</v>
+      </c>
+      <c r="BC34">
+        <v>1.93</v>
+      </c>
+      <c r="BD34">
+        <v>2.5</v>
+      </c>
+      <c r="BE34">
+        <v>3.45</v>
+      </c>
+      <c r="BF34">
+        <v>4</v>
+      </c>
+      <c r="BG34">
+        <v>3</v>
+      </c>
+      <c r="BH34">
+        <v>8</v>
+      </c>
+      <c r="BI34">
+        <v>7</v>
+      </c>
+      <c r="BJ34">
+        <v>12</v>
+      </c>
+      <c r="BK34">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:63">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>4925971</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35" t="s">
+        <v>64</v>
+      </c>
+      <c r="E35" s="2">
+        <v>44996.89583333334</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>103</v>
+      </c>
+      <c r="P35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q35">
+        <v>1</v>
+      </c>
+      <c r="R35">
+        <v>9</v>
+      </c>
+      <c r="S35">
+        <v>10</v>
+      </c>
+      <c r="T35">
+        <v>2.7</v>
+      </c>
+      <c r="U35">
+        <v>2.2</v>
+      </c>
+      <c r="V35">
+        <v>3.6</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>3</v>
+      </c>
+      <c r="Y35">
+        <v>2.4</v>
+      </c>
+      <c r="Z35">
+        <v>1.5</v>
+      </c>
+      <c r="AA35">
+        <v>5.5</v>
+      </c>
+      <c r="AB35">
+        <v>1.11</v>
+      </c>
+      <c r="AC35">
+        <v>2.52</v>
+      </c>
+      <c r="AD35">
+        <v>3.4</v>
+      </c>
+      <c r="AE35">
+        <v>2.28</v>
+      </c>
+      <c r="AF35">
+        <v>1.04</v>
+      </c>
+      <c r="AG35">
+        <v>8.5</v>
+      </c>
+      <c r="AH35">
+        <v>1.22</v>
+      </c>
+      <c r="AI35">
+        <v>3.8</v>
+      </c>
+      <c r="AJ35">
+        <v>1.67</v>
+      </c>
+      <c r="AK35">
+        <v>2.1</v>
+      </c>
+      <c r="AL35">
+        <v>1.57</v>
+      </c>
+      <c r="AM35">
+        <v>2.25</v>
+      </c>
+      <c r="AN35">
+        <v>1.35</v>
+      </c>
+      <c r="AO35">
+        <v>1.3</v>
+      </c>
+      <c r="AP35">
+        <v>1.7</v>
+      </c>
+      <c r="AQ35">
+        <v>0</v>
+      </c>
+      <c r="AR35">
+        <v>0</v>
+      </c>
+      <c r="AS35">
+        <v>1</v>
+      </c>
+      <c r="AT35">
+        <v>0.5</v>
+      </c>
+      <c r="AU35">
+        <v>0</v>
+      </c>
+      <c r="AV35">
+        <v>1.17</v>
+      </c>
+      <c r="AW35">
+        <v>1.17</v>
+      </c>
+      <c r="AX35">
+        <v>1.66</v>
+      </c>
+      <c r="AY35">
+        <v>7</v>
+      </c>
+      <c r="AZ35">
+        <v>2.7</v>
+      </c>
+      <c r="BA35">
+        <v>1.3</v>
+      </c>
+      <c r="BB35">
+        <v>1.56</v>
+      </c>
+      <c r="BC35">
+        <v>2</v>
+      </c>
+      <c r="BD35">
+        <v>2.63</v>
+      </c>
+      <c r="BE35">
+        <v>3.65</v>
+      </c>
+      <c r="BF35">
+        <v>4</v>
+      </c>
+      <c r="BG35">
+        <v>5</v>
+      </c>
+      <c r="BH35">
+        <v>2</v>
+      </c>
+      <c r="BI35">
+        <v>9</v>
+      </c>
+      <c r="BJ35">
+        <v>6</v>
+      </c>
+      <c r="BK35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:63">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>4925972</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44996.9375</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36" t="s">
+        <v>96</v>
+      </c>
+      <c r="P36" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q36">
+        <v>9</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>13</v>
+      </c>
+      <c r="T36">
+        <v>2.9</v>
+      </c>
+      <c r="U36">
+        <v>2.35</v>
+      </c>
+      <c r="V36">
+        <v>3.3</v>
+      </c>
+      <c r="W36">
+        <v>1.3</v>
+      </c>
+      <c r="X36">
+        <v>3.5</v>
+      </c>
+      <c r="Y36">
+        <v>2.4</v>
+      </c>
+      <c r="Z36">
+        <v>1.53</v>
+      </c>
+      <c r="AA36">
+        <v>5.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.12</v>
+      </c>
+      <c r="AC36">
+        <v>2.28</v>
+      </c>
+      <c r="AD36">
+        <v>3.4</v>
+      </c>
+      <c r="AE36">
+        <v>2.52</v>
+      </c>
+      <c r="AF36">
+        <v>1.02</v>
+      </c>
+      <c r="AG36">
+        <v>15</v>
+      </c>
+      <c r="AH36">
+        <v>1.2</v>
+      </c>
+      <c r="AI36">
+        <v>4.5</v>
+      </c>
+      <c r="AJ36">
+        <v>1.54</v>
+      </c>
+      <c r="AK36">
+        <v>2.35</v>
+      </c>
+      <c r="AL36">
+        <v>1.53</v>
+      </c>
+      <c r="AM36">
+        <v>2.45</v>
+      </c>
+      <c r="AN36">
+        <v>1.44</v>
+      </c>
+      <c r="AO36">
+        <v>1.22</v>
+      </c>
+      <c r="AP36">
+        <v>1.62</v>
+      </c>
+      <c r="AQ36">
+        <v>0</v>
+      </c>
+      <c r="AR36">
+        <v>0</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36">
+        <v>0.5</v>
+      </c>
+      <c r="AU36">
+        <v>0</v>
+      </c>
+      <c r="AV36">
+        <v>1.49</v>
+      </c>
+      <c r="AW36">
+        <v>1.49</v>
+      </c>
+      <c r="AX36">
+        <v>1.73</v>
+      </c>
+      <c r="AY36">
+        <v>7</v>
+      </c>
+      <c r="AZ36">
+        <v>2.55</v>
+      </c>
+      <c r="BA36">
+        <v>1.32</v>
+      </c>
+      <c r="BB36">
+        <v>1.58</v>
+      </c>
+      <c r="BC36">
+        <v>2.02</v>
+      </c>
+      <c r="BD36">
+        <v>2.7</v>
+      </c>
+      <c r="BE36">
+        <v>3.8</v>
+      </c>
+      <c r="BF36">
+        <v>12</v>
+      </c>
+      <c r="BG36">
+        <v>3</v>
+      </c>
+      <c r="BH36">
+        <v>8</v>
+      </c>
+      <c r="BI36">
+        <v>1</v>
+      </c>
+      <c r="BJ36">
+        <v>20</v>
+      </c>
+      <c r="BK36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:63">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>4925973</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="2">
+        <v>44996.9375</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37" t="s">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s">
+        <v>81</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q37">
+        <v>6</v>
+      </c>
+      <c r="R37">
+        <v>5</v>
+      </c>
+      <c r="S37">
+        <v>11</v>
+      </c>
+      <c r="T37">
+        <v>3.24</v>
+      </c>
+      <c r="U37">
+        <v>2.07</v>
+      </c>
+      <c r="V37">
+        <v>3.34</v>
+      </c>
+      <c r="W37">
+        <v>1.42</v>
+      </c>
+      <c r="X37">
+        <v>2.62</v>
+      </c>
+      <c r="Y37">
+        <v>2.9</v>
+      </c>
+      <c r="Z37">
+        <v>1.36</v>
+      </c>
+      <c r="AA37">
+        <v>6.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.08</v>
+      </c>
+      <c r="AC37">
+        <v>2.35</v>
+      </c>
+      <c r="AD37">
+        <v>3.13</v>
+      </c>
+      <c r="AE37">
+        <v>2.59</v>
+      </c>
+      <c r="AF37">
+        <v>1.05</v>
+      </c>
+      <c r="AG37">
+        <v>8</v>
+      </c>
+      <c r="AH37">
+        <v>1.33</v>
+      </c>
+      <c r="AI37">
+        <v>3</v>
+      </c>
+      <c r="AJ37">
+        <v>1.9</v>
+      </c>
+      <c r="AK37">
+        <v>1.71</v>
+      </c>
+      <c r="AL37">
+        <v>1.8</v>
+      </c>
+      <c r="AM37">
+        <v>1.91</v>
+      </c>
+      <c r="AN37">
+        <v>1.48</v>
+      </c>
+      <c r="AO37">
+        <v>1.33</v>
+      </c>
+      <c r="AP37">
+        <v>1.48</v>
+      </c>
+      <c r="AQ37">
+        <v>0</v>
+      </c>
+      <c r="AR37">
+        <v>0</v>
+      </c>
+      <c r="AS37">
+        <v>1</v>
+      </c>
+      <c r="AT37">
+        <v>0.5</v>
+      </c>
+      <c r="AU37">
+        <v>0</v>
+      </c>
+      <c r="AV37">
+        <v>1.87</v>
+      </c>
+      <c r="AW37">
+        <v>1.87</v>
+      </c>
+      <c r="AX37">
+        <v>1.87</v>
+      </c>
+      <c r="AY37">
+        <v>7</v>
+      </c>
+      <c r="AZ37">
+        <v>2.28</v>
+      </c>
+      <c r="BA37">
+        <v>1.24</v>
+      </c>
+      <c r="BB37">
+        <v>1.44</v>
+      </c>
+      <c r="BC37">
+        <v>1.8</v>
+      </c>
+      <c r="BD37">
+        <v>2.3</v>
+      </c>
+      <c r="BE37">
+        <v>3.15</v>
+      </c>
+      <c r="BF37">
+        <v>3</v>
+      </c>
+      <c r="BG37">
+        <v>5</v>
+      </c>
+      <c r="BH37">
+        <v>5</v>
+      </c>
+      <c r="BI37">
+        <v>11</v>
+      </c>
+      <c r="BJ37">
+        <v>8</v>
+      </c>
+      <c r="BK37">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:63">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4925974</v>
+      </c>
+      <c r="C38" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44996.9375</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38" t="s">
+        <v>65</v>
+      </c>
+      <c r="H38" t="s">
+        <v>92</v>
+      </c>
+      <c r="I38">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>1</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
+      </c>
+      <c r="O38" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q38">
+        <v>9</v>
+      </c>
+      <c r="R38">
+        <v>5</v>
+      </c>
+      <c r="S38">
+        <v>14</v>
+      </c>
+      <c r="T38">
+        <v>2.4</v>
+      </c>
+      <c r="U38">
+        <v>2.2</v>
+      </c>
+      <c r="V38">
+        <v>4.33</v>
+      </c>
+      <c r="W38">
+        <v>1.38</v>
+      </c>
+      <c r="X38">
+        <v>2.8</v>
+      </c>
+      <c r="Y38">
+        <v>2.8</v>
+      </c>
+      <c r="Z38">
+        <v>1.38</v>
+      </c>
+      <c r="AA38">
+        <v>6</v>
+      </c>
+      <c r="AB38">
+        <v>1.09</v>
+      </c>
+      <c r="AC38">
+        <v>2.08</v>
+      </c>
+      <c r="AD38">
+        <v>3.17</v>
+      </c>
+      <c r="AE38">
+        <v>3</v>
+      </c>
+      <c r="AF38">
+        <v>1.05</v>
+      </c>
+      <c r="AG38">
+        <v>11</v>
+      </c>
+      <c r="AH38">
+        <v>1.3</v>
+      </c>
+      <c r="AI38">
+        <v>3.2</v>
+      </c>
+      <c r="AJ38">
+        <v>1.9</v>
+      </c>
+      <c r="AK38">
+        <v>1.71</v>
+      </c>
+      <c r="AL38">
+        <v>1.8</v>
+      </c>
+      <c r="AM38">
+        <v>1.95</v>
+      </c>
+      <c r="AN38">
+        <v>1.25</v>
+      </c>
+      <c r="AO38">
+        <v>1.25</v>
+      </c>
+      <c r="AP38">
+        <v>1.9</v>
+      </c>
+      <c r="AQ38">
+        <v>3</v>
+      </c>
+      <c r="AR38">
+        <v>0</v>
+      </c>
+      <c r="AS38">
+        <v>3</v>
+      </c>
+      <c r="AT38">
+        <v>0</v>
+      </c>
+      <c r="AU38">
+        <v>1.41</v>
+      </c>
+      <c r="AV38">
+        <v>1.42</v>
+      </c>
+      <c r="AW38">
+        <v>2.83</v>
+      </c>
+      <c r="AX38">
+        <v>1.48</v>
+      </c>
+      <c r="AY38">
+        <v>7.5</v>
+      </c>
+      <c r="AZ38">
+        <v>3.25</v>
+      </c>
+      <c r="BA38">
+        <v>1.3</v>
+      </c>
+      <c r="BB38">
+        <v>1.56</v>
+      </c>
+      <c r="BC38">
+        <v>2</v>
+      </c>
+      <c r="BD38">
+        <v>2.63</v>
+      </c>
+      <c r="BE38">
+        <v>3.65</v>
+      </c>
+      <c r="BF38">
+        <v>5</v>
+      </c>
+      <c r="BG38">
+        <v>0</v>
+      </c>
+      <c r="BH38">
+        <v>5</v>
+      </c>
+      <c r="BI38">
+        <v>8</v>
+      </c>
+      <c r="BJ38">
+        <v>10</v>
+      </c>
+      <c r="BK38">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:63">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>4925975</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>64</v>
+      </c>
+      <c r="E39" s="2">
+        <v>44996.97916666666</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" t="s">
+        <v>73</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+      <c r="K39">
+        <v>3</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q39">
+        <v>8</v>
+      </c>
+      <c r="R39">
+        <v>3</v>
+      </c>
+      <c r="S39">
+        <v>11</v>
+      </c>
+      <c r="T39">
+        <v>2.7</v>
+      </c>
+      <c r="U39">
+        <v>2.25</v>
+      </c>
+      <c r="V39">
+        <v>3.5</v>
+      </c>
+      <c r="W39">
+        <v>1.33</v>
+      </c>
+      <c r="X39">
+        <v>3</v>
+      </c>
+      <c r="Y39">
+        <v>2.5</v>
+      </c>
+      <c r="Z39">
+        <v>1.48</v>
+      </c>
+      <c r="AA39">
+        <v>5.5</v>
+      </c>
+      <c r="AB39">
+        <v>1.11</v>
+      </c>
+      <c r="AC39">
+        <v>2.3</v>
+      </c>
+      <c r="AD39">
+        <v>3.34</v>
+      </c>
+      <c r="AE39">
+        <v>2.53</v>
+      </c>
+      <c r="AF39">
+        <v>1.04</v>
+      </c>
+      <c r="AG39">
+        <v>15</v>
+      </c>
+      <c r="AH39">
+        <v>1.22</v>
+      </c>
+      <c r="AI39">
+        <v>3.8</v>
+      </c>
+      <c r="AJ39">
+        <v>1.63</v>
+      </c>
+      <c r="AK39">
+        <v>2.18</v>
+      </c>
+      <c r="AL39">
+        <v>1.57</v>
+      </c>
+      <c r="AM39">
+        <v>2.25</v>
+      </c>
+      <c r="AN39">
+        <v>1.36</v>
+      </c>
+      <c r="AO39">
+        <v>1.29</v>
+      </c>
+      <c r="AP39">
+        <v>1.7</v>
+      </c>
+      <c r="AQ39">
+        <v>0</v>
+      </c>
+      <c r="AR39">
+        <v>0</v>
+      </c>
+      <c r="AS39">
+        <v>0</v>
+      </c>
+      <c r="AT39">
+        <v>3</v>
+      </c>
+      <c r="AU39">
+        <v>0</v>
+      </c>
+      <c r="AV39">
+        <v>0</v>
+      </c>
+      <c r="AW39">
+        <v>0</v>
+      </c>
+      <c r="AX39">
+        <v>1.63</v>
+      </c>
+      <c r="AY39">
+        <v>7.5</v>
+      </c>
+      <c r="AZ39">
+        <v>2.7</v>
+      </c>
+      <c r="BA39">
+        <v>1.18</v>
+      </c>
+      <c r="BB39">
+        <v>1.34</v>
+      </c>
+      <c r="BC39">
+        <v>1.61</v>
+      </c>
+      <c r="BD39">
+        <v>2.02</v>
+      </c>
+      <c r="BE39">
+        <v>2.7</v>
+      </c>
+      <c r="BF39">
+        <v>7</v>
+      </c>
+      <c r="BG39">
+        <v>6</v>
+      </c>
+      <c r="BH39">
+        <v>6</v>
+      </c>
+      <c r="BI39">
+        <v>2</v>
+      </c>
+      <c r="BJ39">
+        <v>13</v>
+      </c>
+      <c r="BK39">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:63">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4925976</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="2">
+        <v>44997.02083333334</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" t="s">
+        <v>83</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>2</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>125</v>
+      </c>
+      <c r="P40" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q40">
+        <v>6</v>
+      </c>
+      <c r="R40">
+        <v>6</v>
+      </c>
+      <c r="S40">
+        <v>12</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0</v>
+      </c>
+      <c r="V40">
+        <v>0</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0</v>
+      </c>
+      <c r="AB40">
+        <v>0</v>
+      </c>
+      <c r="AC40">
+        <v>1.88</v>
+      </c>
+      <c r="AD40">
+        <v>3.28</v>
+      </c>
+      <c r="AE40">
+        <v>3.42</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>0</v>
+      </c>
+      <c r="AI40">
+        <v>0</v>
+      </c>
+      <c r="AJ40">
+        <v>1.75</v>
+      </c>
+      <c r="AK40">
+        <v>1.98</v>
+      </c>
+      <c r="AL40">
+        <v>0</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0</v>
+      </c>
+      <c r="AQ40">
+        <v>3</v>
+      </c>
+      <c r="AR40">
+        <v>3</v>
+      </c>
+      <c r="AS40">
+        <v>1.5</v>
+      </c>
+      <c r="AT40">
+        <v>3</v>
+      </c>
+      <c r="AU40">
+        <v>1.06</v>
+      </c>
+      <c r="AV40">
+        <v>1.69</v>
+      </c>
+      <c r="AW40">
+        <v>2.75</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
+        <v>0</v>
+      </c>
+      <c r="BC40">
+        <v>0</v>
+      </c>
+      <c r="BD40">
+        <v>0</v>
+      </c>
+      <c r="BE40">
+        <v>0</v>
+      </c>
+      <c r="BF40">
+        <v>3</v>
+      </c>
+      <c r="BG40">
+        <v>5</v>
+      </c>
+      <c r="BH40">
+        <v>5</v>
+      </c>
+      <c r="BI40">
+        <v>4</v>
+      </c>
+      <c r="BJ40">
+        <v>8</v>
+      </c>
+      <c r="BK40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:63">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>4925977</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>44997.02083333334</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>1</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
+        <v>126</v>
+      </c>
+      <c r="P41" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q41">
+        <v>5</v>
+      </c>
+      <c r="R41">
+        <v>3</v>
+      </c>
+      <c r="S41">
+        <v>8</v>
+      </c>
+      <c r="T41">
+        <v>2.4</v>
+      </c>
+      <c r="U41">
+        <v>2.3</v>
+      </c>
+      <c r="V41">
+        <v>4</v>
+      </c>
+      <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>3.2</v>
+      </c>
+      <c r="Y41">
+        <v>2.4</v>
+      </c>
+      <c r="Z41">
+        <v>1.5</v>
+      </c>
+      <c r="AA41">
+        <v>5.5</v>
+      </c>
+      <c r="AB41">
+        <v>1.11</v>
+      </c>
+      <c r="AC41">
+        <v>2.22</v>
+      </c>
+      <c r="AD41">
+        <v>3.27</v>
+      </c>
+      <c r="AE41">
+        <v>2.68</v>
+      </c>
+      <c r="AF41">
+        <v>1.04</v>
+      </c>
+      <c r="AG41">
+        <v>15.75</v>
+      </c>
+      <c r="AH41">
+        <v>1.2</v>
+      </c>
+      <c r="AI41">
+        <v>4</v>
+      </c>
+      <c r="AJ41">
+        <v>1.65</v>
+      </c>
+      <c r="AK41">
+        <v>2.14</v>
+      </c>
+      <c r="AL41">
+        <v>1.57</v>
+      </c>
+      <c r="AM41">
+        <v>2.25</v>
+      </c>
+      <c r="AN41">
+        <v>1.3</v>
+      </c>
+      <c r="AO41">
+        <v>1.25</v>
+      </c>
+      <c r="AP41">
+        <v>1.88</v>
+      </c>
+      <c r="AQ41">
+        <v>3</v>
+      </c>
+      <c r="AR41">
+        <v>0</v>
+      </c>
+      <c r="AS41">
+        <v>3</v>
+      </c>
+      <c r="AT41">
+        <v>0</v>
+      </c>
+      <c r="AU41">
+        <v>1.88</v>
+      </c>
+      <c r="AV41">
+        <v>1.2</v>
+      </c>
+      <c r="AW41">
+        <v>3.08</v>
+      </c>
+      <c r="AX41">
+        <v>1.46</v>
+      </c>
+      <c r="AY41">
+        <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>3.3</v>
+      </c>
+      <c r="BA41">
+        <v>1.2</v>
+      </c>
+      <c r="BB41">
+        <v>1.38</v>
+      </c>
+      <c r="BC41">
+        <v>1.67</v>
+      </c>
+      <c r="BD41">
+        <v>2.12</v>
+      </c>
+      <c r="BE41">
+        <v>2.85</v>
+      </c>
+      <c r="BF41">
+        <v>5</v>
+      </c>
+      <c r="BG41">
+        <v>0</v>
+      </c>
+      <c r="BH41">
+        <v>6</v>
+      </c>
+      <c r="BI41">
+        <v>7</v>
+      </c>
+      <c r="BJ41">
+        <v>11</v>
+      </c>
+      <c r="BK41">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['78']</t>
+  </si>
+  <si>
+    <t>['14', '67', '83', '90+6']</t>
   </si>
   <si>
     <t>['12']</t>
@@ -816,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK41"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,7 +1254,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1442,7 +1445,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1532,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="AT4">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1633,7 +1636,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1824,7 +1827,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -2397,7 +2400,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2588,7 +2591,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -2779,7 +2782,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -2970,7 +2973,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3543,7 +3546,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3734,7 +3737,7 @@
         <v>107</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>9</v>
@@ -5071,7 +5074,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5262,7 +5265,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5453,7 +5456,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6026,7 +6029,7 @@
         <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -6217,7 +6220,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6408,16 +6411,16 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q30">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R30">
         <v>6</v>
       </c>
       <c r="S30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="T30">
         <v>2.96</v>
@@ -6537,16 +6540,16 @@
         <v>5</v>
       </c>
       <c r="BG30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH30">
+        <v>4</v>
+      </c>
+      <c r="BI30">
         <v>5</v>
       </c>
-      <c r="BI30">
-        <v>6</v>
-      </c>
       <c r="BJ30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK30">
         <v>8</v>
@@ -6790,7 +6793,7 @@
         <v>119</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -7745,7 +7748,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8127,7 +8130,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8318,7 +8321,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8651,6 +8654,197 @@
       </c>
       <c r="BK41">
         <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:63">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4925978</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>64</v>
+      </c>
+      <c r="E42" s="2">
+        <v>44997.97916666666</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>4</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>127</v>
+      </c>
+      <c r="P42" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q42">
+        <v>8</v>
+      </c>
+      <c r="R42">
+        <v>5</v>
+      </c>
+      <c r="S42">
+        <v>13</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>2.5</v>
+      </c>
+      <c r="V42">
+        <v>6</v>
+      </c>
+      <c r="W42">
+        <v>1.3</v>
+      </c>
+      <c r="X42">
+        <v>3.4</v>
+      </c>
+      <c r="Y42">
+        <v>2.38</v>
+      </c>
+      <c r="Z42">
+        <v>1.53</v>
+      </c>
+      <c r="AA42">
+        <v>6</v>
+      </c>
+      <c r="AB42">
+        <v>1.13</v>
+      </c>
+      <c r="AC42">
+        <v>1.4</v>
+      </c>
+      <c r="AD42">
+        <v>4.35</v>
+      </c>
+      <c r="AE42">
+        <v>5.9</v>
+      </c>
+      <c r="AF42">
+        <v>1.02</v>
+      </c>
+      <c r="AG42">
+        <v>17</v>
+      </c>
+      <c r="AH42">
+        <v>1.18</v>
+      </c>
+      <c r="AI42">
+        <v>4.75</v>
+      </c>
+      <c r="AJ42">
+        <v>1.56</v>
+      </c>
+      <c r="AK42">
+        <v>2.3</v>
+      </c>
+      <c r="AL42">
+        <v>1.75</v>
+      </c>
+      <c r="AM42">
+        <v>2</v>
+      </c>
+      <c r="AN42">
+        <v>1.12</v>
+      </c>
+      <c r="AO42">
+        <v>1.2</v>
+      </c>
+      <c r="AP42">
+        <v>2.55</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>3</v>
+      </c>
+      <c r="AS42">
+        <v>3</v>
+      </c>
+      <c r="AT42">
+        <v>1.5</v>
+      </c>
+      <c r="AU42">
+        <v>1.38</v>
+      </c>
+      <c r="AV42">
+        <v>1.85</v>
+      </c>
+      <c r="AW42">
+        <v>3.23</v>
+      </c>
+      <c r="AX42">
+        <v>1.25</v>
+      </c>
+      <c r="AY42">
+        <v>9</v>
+      </c>
+      <c r="AZ42">
+        <v>4.75</v>
+      </c>
+      <c r="BA42">
+        <v>1.13</v>
+      </c>
+      <c r="BB42">
+        <v>1.28</v>
+      </c>
+      <c r="BC42">
+        <v>1.51</v>
+      </c>
+      <c r="BD42">
+        <v>1.87</v>
+      </c>
+      <c r="BE42">
+        <v>2.36</v>
+      </c>
+      <c r="BF42">
+        <v>13</v>
+      </c>
+      <c r="BG42">
+        <v>2</v>
+      </c>
+      <c r="BH42">
+        <v>4</v>
+      </c>
+      <c r="BI42">
+        <v>2</v>
+      </c>
+      <c r="BJ42">
+        <v>17</v>
+      </c>
+      <c r="BK42">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK42"/>
+  <dimension ref="A1:BK43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT13" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT27" t="n">
         <v>1.5</v>
@@ -9074,6 +9074,209 @@
         <v>17</v>
       </c>
       <c r="BK42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>4925979</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45003.70833333334</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>7</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>11</v>
+      </c>
+      <c r="T43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V43" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK43" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,33 @@
     <t>['45+4']</t>
   </si>
   <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['45+3', '76']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['14', '47', '51', '64', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['3', '84']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
@@ -475,15 +502,9 @@
     <t>['25']</t>
   </si>
   <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['5', '12', '45+2']</t>
   </si>
   <si>
-    <t>['5']</t>
-  </si>
-  <si>
     <t>['53']</t>
   </si>
   <si>
@@ -518,6 +539,36 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['2', '9']</t>
+  </si>
+  <si>
+    <t>['63', '88']</t>
+  </si>
+  <si>
+    <t>['30', '38', '90+2']</t>
+  </si>
+  <si>
+    <t>['43']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['23', '54', '69', '77']</t>
+  </si>
+  <si>
+    <t>['90+8']</t>
+  </si>
+  <si>
+    <t>['47', '61', '66', '76']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -879,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK56"/>
+  <dimension ref="A1:BK70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,10 +1261,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT2">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1314,7 +1365,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>8</v>
@@ -1505,7 +1556,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>8</v>
@@ -1592,10 +1643,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1696,7 +1747,7 @@
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -1887,7 +1938,7 @@
         <v>98</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>3</v>
@@ -1974,10 +2025,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2165,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0</v>
@@ -2359,7 +2410,7 @@
         <v>1.33</v>
       </c>
       <c r="AT8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2460,7 +2511,7 @@
         <v>101</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2547,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT9">
         <v>0.33</v>
@@ -2651,7 +2702,7 @@
         <v>102</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>8</v>
@@ -2738,7 +2789,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
         <v>3</v>
@@ -2842,7 +2893,7 @@
         <v>96</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q11">
         <v>9</v>
@@ -3033,7 +3084,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -3314,7 +3365,7 @@
         <v>2.33</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3502,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
         <v>0.33</v>
@@ -3606,7 +3657,7 @@
         <v>106</v>
       </c>
       <c r="P15" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3887,7 +3938,7 @@
         <v>2.33</v>
       </c>
       <c r="AT16">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU16">
         <v>2.25</v>
@@ -4266,7 +4317,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>0</v>
@@ -4842,7 +4893,7 @@
         <v>1.33</v>
       </c>
       <c r="AT21">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU21">
         <v>0.93</v>
@@ -5030,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT22">
         <v>0</v>
@@ -5134,7 +5185,7 @@
         <v>112</v>
       </c>
       <c r="P23" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q23">
         <v>6</v>
@@ -5224,7 +5275,7 @@
         <v>1</v>
       </c>
       <c r="AT23">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5325,7 +5376,7 @@
         <v>113</v>
       </c>
       <c r="P24" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q24">
         <v>2</v>
@@ -5415,7 +5466,7 @@
         <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU24">
         <v>1.31</v>
@@ -5516,7 +5567,7 @@
         <v>114</v>
       </c>
       <c r="P25" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q25">
         <v>4</v>
@@ -6089,7 +6140,7 @@
         <v>116</v>
       </c>
       <c r="P28" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>11</v>
@@ -6176,10 +6227,10 @@
         <v>0</v>
       </c>
       <c r="AS28">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU28">
         <v>0</v>
@@ -6280,7 +6331,7 @@
         <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -6367,10 +6418,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AT29">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.85</v>
@@ -6471,7 +6522,7 @@
         <v>117</v>
       </c>
       <c r="P30" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6561,7 +6612,7 @@
         <v>0.5</v>
       </c>
       <c r="AT30">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU30">
         <v>2.28</v>
@@ -6752,7 +6803,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU31">
         <v>1.7</v>
@@ -6853,7 +6904,7 @@
         <v>119</v>
       </c>
       <c r="P32" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q32">
         <v>5</v>
@@ -6940,10 +6991,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AU32">
         <v>1.43</v>
@@ -7322,10 +7373,10 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AU34">
         <v>1.59</v>
@@ -7704,10 +7755,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU36">
         <v>0</v>
@@ -7898,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="AT37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU37">
         <v>0</v>
@@ -8086,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AS38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0</v>
@@ -8190,7 +8241,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>8</v>
@@ -8381,7 +8432,7 @@
         <v>125</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>6</v>
@@ -8468,7 +8519,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT40">
         <v>3</v>
@@ -8659,10 +8710,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT41">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU41">
         <v>1.88</v>
@@ -8853,7 +8904,7 @@
         <v>3</v>
       </c>
       <c r="AT42">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU42">
         <v>1.38</v>
@@ -9145,7 +9196,7 @@
         <v>128</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9336,7 +9387,7 @@
         <v>129</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>8</v>
@@ -9718,7 +9769,7 @@
         <v>131</v>
       </c>
       <c r="P47" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9909,7 +9960,7 @@
         <v>132</v>
       </c>
       <c r="P48" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="Q48">
         <v>5</v>
@@ -10100,7 +10151,7 @@
         <v>133</v>
       </c>
       <c r="P49" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="Q49">
         <v>5</v>
@@ -10482,7 +10533,7 @@
         <v>135</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q51">
         <v>8</v>
@@ -10572,7 +10623,7 @@
         <v>1</v>
       </c>
       <c r="AT51">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU51">
         <v>0.99</v>
@@ -10673,7 +10724,7 @@
         <v>136</v>
       </c>
       <c r="P52" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="Q52">
         <v>7</v>
@@ -11246,7 +11297,7 @@
         <v>139</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -11437,7 +11488,7 @@
         <v>140</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>13</v>
@@ -11527,7 +11578,7 @@
         <v>1</v>
       </c>
       <c r="AT56">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU56">
         <v>0</v>
@@ -11579,6 +11630,2680 @@
       </c>
       <c r="BK56">
         <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:63">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>4925993</v>
+      </c>
+      <c r="C57" t="s">
+        <v>63</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45010.72916666666</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s">
+        <v>93</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>0</v>
+      </c>
+      <c r="O57" t="s">
+        <v>96</v>
+      </c>
+      <c r="P57" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q57">
+        <v>2</v>
+      </c>
+      <c r="R57">
+        <v>5</v>
+      </c>
+      <c r="S57">
+        <v>7</v>
+      </c>
+      <c r="T57">
+        <v>2.77</v>
+      </c>
+      <c r="U57">
+        <v>2.26</v>
+      </c>
+      <c r="V57">
+        <v>3.56</v>
+      </c>
+      <c r="W57">
+        <v>1.32</v>
+      </c>
+      <c r="X57">
+        <v>3.22</v>
+      </c>
+      <c r="Y57">
+        <v>2.49</v>
+      </c>
+      <c r="Z57">
+        <v>1.5</v>
+      </c>
+      <c r="AA57">
+        <v>5.9</v>
+      </c>
+      <c r="AB57">
+        <v>1.11</v>
+      </c>
+      <c r="AC57">
+        <v>2.31</v>
+      </c>
+      <c r="AD57">
+        <v>3.65</v>
+      </c>
+      <c r="AE57">
+        <v>2.91</v>
+      </c>
+      <c r="AF57">
+        <v>1.04</v>
+      </c>
+      <c r="AG57">
+        <v>15.5</v>
+      </c>
+      <c r="AH57">
+        <v>1.22</v>
+      </c>
+      <c r="AI57">
+        <v>4.4</v>
+      </c>
+      <c r="AJ57">
+        <v>1.75</v>
+      </c>
+      <c r="AK57">
+        <v>1.95</v>
+      </c>
+      <c r="AL57">
+        <v>1.58</v>
+      </c>
+      <c r="AM57">
+        <v>2.32</v>
+      </c>
+      <c r="AN57">
+        <v>1.39</v>
+      </c>
+      <c r="AO57">
+        <v>1.28</v>
+      </c>
+      <c r="AP57">
+        <v>1.64</v>
+      </c>
+      <c r="AQ57">
+        <v>1.5</v>
+      </c>
+      <c r="AR57">
+        <v>0.5</v>
+      </c>
+      <c r="AS57">
+        <v>1.33</v>
+      </c>
+      <c r="AT57">
+        <v>0.67</v>
+      </c>
+      <c r="AU57">
+        <v>1.07</v>
+      </c>
+      <c r="AV57">
+        <v>1.12</v>
+      </c>
+      <c r="AW57">
+        <v>2.19</v>
+      </c>
+      <c r="AX57">
+        <v>2.08</v>
+      </c>
+      <c r="AY57">
+        <v>7.6</v>
+      </c>
+      <c r="AZ57">
+        <v>2.08</v>
+      </c>
+      <c r="BA57">
+        <v>1.2</v>
+      </c>
+      <c r="BB57">
+        <v>1.48</v>
+      </c>
+      <c r="BC57">
+        <v>1.73</v>
+      </c>
+      <c r="BD57">
+        <v>2.1</v>
+      </c>
+      <c r="BE57">
+        <v>2.7</v>
+      </c>
+      <c r="BF57">
+        <v>2</v>
+      </c>
+      <c r="BG57">
+        <v>5</v>
+      </c>
+      <c r="BH57">
+        <v>4</v>
+      </c>
+      <c r="BI57">
+        <v>6</v>
+      </c>
+      <c r="BJ57">
+        <v>6</v>
+      </c>
+      <c r="BK57">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:63">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>4925998</v>
+      </c>
+      <c r="C58" t="s">
+        <v>63</v>
+      </c>
+      <c r="D58" t="s">
+        <v>64</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58">
+        <v>3</v>
+      </c>
+      <c r="L58">
+        <v>1</v>
+      </c>
+      <c r="M58">
+        <v>2</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>141</v>
+      </c>
+      <c r="P58" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q58">
+        <v>7</v>
+      </c>
+      <c r="R58">
+        <v>4</v>
+      </c>
+      <c r="S58">
+        <v>11</v>
+      </c>
+      <c r="T58">
+        <v>2.25</v>
+      </c>
+      <c r="U58">
+        <v>2.25</v>
+      </c>
+      <c r="V58">
+        <v>4.7</v>
+      </c>
+      <c r="W58">
+        <v>1.35</v>
+      </c>
+      <c r="X58">
+        <v>3.05</v>
+      </c>
+      <c r="Y58">
+        <v>2.64</v>
+      </c>
+      <c r="Z58">
+        <v>1.45</v>
+      </c>
+      <c r="AA58">
+        <v>6.45</v>
+      </c>
+      <c r="AB58">
+        <v>1.1</v>
+      </c>
+      <c r="AC58">
+        <v>1.53</v>
+      </c>
+      <c r="AD58">
+        <v>4</v>
+      </c>
+      <c r="AE58">
+        <v>6</v>
+      </c>
+      <c r="AF58">
+        <v>1.05</v>
+      </c>
+      <c r="AG58">
+        <v>13.25</v>
+      </c>
+      <c r="AH58">
+        <v>1.26</v>
+      </c>
+      <c r="AI58">
+        <v>3.93</v>
+      </c>
+      <c r="AJ58">
+        <v>1.86</v>
+      </c>
+      <c r="AK58">
+        <v>2.02</v>
+      </c>
+      <c r="AL58">
+        <v>1.78</v>
+      </c>
+      <c r="AM58">
+        <v>2</v>
+      </c>
+      <c r="AN58">
+        <v>1.22</v>
+      </c>
+      <c r="AO58">
+        <v>1.27</v>
+      </c>
+      <c r="AP58">
+        <v>2.05</v>
+      </c>
+      <c r="AQ58">
+        <v>3</v>
+      </c>
+      <c r="AR58">
+        <v>1</v>
+      </c>
+      <c r="AS58">
+        <v>2</v>
+      </c>
+      <c r="AT58">
+        <v>2</v>
+      </c>
+      <c r="AU58">
+        <v>1.5</v>
+      </c>
+      <c r="AV58">
+        <v>1.1</v>
+      </c>
+      <c r="AW58">
+        <v>2.6</v>
+      </c>
+      <c r="AX58">
+        <v>1.75</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>2.52</v>
+      </c>
+      <c r="BA58">
+        <v>1.29</v>
+      </c>
+      <c r="BB58">
+        <v>1.62</v>
+      </c>
+      <c r="BC58">
+        <v>2</v>
+      </c>
+      <c r="BD58">
+        <v>2.5</v>
+      </c>
+      <c r="BE58">
+        <v>3.75</v>
+      </c>
+      <c r="BF58">
+        <v>7</v>
+      </c>
+      <c r="BG58">
+        <v>5</v>
+      </c>
+      <c r="BH58">
+        <v>13</v>
+      </c>
+      <c r="BI58">
+        <v>4</v>
+      </c>
+      <c r="BJ58">
+        <v>20</v>
+      </c>
+      <c r="BK58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:63">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>4925996</v>
+      </c>
+      <c r="C59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>64</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" t="s">
+        <v>80</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>142</v>
+      </c>
+      <c r="P59" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q59">
+        <v>8</v>
+      </c>
+      <c r="R59">
+        <v>4</v>
+      </c>
+      <c r="S59">
+        <v>12</v>
+      </c>
+      <c r="T59">
+        <v>2.8</v>
+      </c>
+      <c r="U59">
+        <v>2.22</v>
+      </c>
+      <c r="V59">
+        <v>3.6</v>
+      </c>
+      <c r="W59">
+        <v>1.34</v>
+      </c>
+      <c r="X59">
+        <v>3.1</v>
+      </c>
+      <c r="Y59">
+        <v>2.58</v>
+      </c>
+      <c r="Z59">
+        <v>1.47</v>
+      </c>
+      <c r="AA59">
+        <v>6.25</v>
+      </c>
+      <c r="AB59">
+        <v>1.1</v>
+      </c>
+      <c r="AC59">
+        <v>2.4</v>
+      </c>
+      <c r="AD59">
+        <v>3.4</v>
+      </c>
+      <c r="AE59">
+        <v>2.75</v>
+      </c>
+      <c r="AF59">
+        <v>1</v>
+      </c>
+      <c r="AG59">
+        <v>10.25</v>
+      </c>
+      <c r="AH59">
+        <v>1.22</v>
+      </c>
+      <c r="AI59">
+        <v>3.72</v>
+      </c>
+      <c r="AJ59">
+        <v>1.94</v>
+      </c>
+      <c r="AK59">
+        <v>1.94</v>
+      </c>
+      <c r="AL59">
+        <v>1.63</v>
+      </c>
+      <c r="AM59">
+        <v>2.22</v>
+      </c>
+      <c r="AN59">
+        <v>1.39</v>
+      </c>
+      <c r="AO59">
+        <v>1.29</v>
+      </c>
+      <c r="AP59">
+        <v>1.63</v>
+      </c>
+      <c r="AQ59">
+        <v>2</v>
+      </c>
+      <c r="AR59">
+        <v>1.5</v>
+      </c>
+      <c r="AS59">
+        <v>1.33</v>
+      </c>
+      <c r="AT59">
+        <v>2</v>
+      </c>
+      <c r="AU59">
+        <v>1.59</v>
+      </c>
+      <c r="AV59">
+        <v>1.26</v>
+      </c>
+      <c r="AW59">
+        <v>2.85</v>
+      </c>
+      <c r="AX59">
+        <v>1.59</v>
+      </c>
+      <c r="AY59">
+        <v>8.5</v>
+      </c>
+      <c r="AZ59">
+        <v>2.78</v>
+      </c>
+      <c r="BA59">
+        <v>1.2</v>
+      </c>
+      <c r="BB59">
+        <v>1.48</v>
+      </c>
+      <c r="BC59">
+        <v>1.73</v>
+      </c>
+      <c r="BD59">
+        <v>2.1</v>
+      </c>
+      <c r="BE59">
+        <v>2.7</v>
+      </c>
+      <c r="BF59">
+        <v>8</v>
+      </c>
+      <c r="BG59">
+        <v>6</v>
+      </c>
+      <c r="BH59">
+        <v>3</v>
+      </c>
+      <c r="BI59">
+        <v>7</v>
+      </c>
+      <c r="BJ59">
+        <v>11</v>
+      </c>
+      <c r="BK59">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:63">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>4925997</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>3</v>
+      </c>
+      <c r="L60">
+        <v>2</v>
+      </c>
+      <c r="M60">
+        <v>3</v>
+      </c>
+      <c r="N60">
+        <v>5</v>
+      </c>
+      <c r="O60" t="s">
+        <v>143</v>
+      </c>
+      <c r="P60" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q60">
+        <v>4</v>
+      </c>
+      <c r="R60">
+        <v>4</v>
+      </c>
+      <c r="S60">
+        <v>8</v>
+      </c>
+      <c r="T60">
+        <v>2.52</v>
+      </c>
+      <c r="U60">
+        <v>2.19</v>
+      </c>
+      <c r="V60">
+        <v>4.32</v>
+      </c>
+      <c r="W60">
+        <v>1.37</v>
+      </c>
+      <c r="X60">
+        <v>2.96</v>
+      </c>
+      <c r="Y60">
+        <v>2.71</v>
+      </c>
+      <c r="Z60">
+        <v>1.43</v>
+      </c>
+      <c r="AA60">
+        <v>6.75</v>
+      </c>
+      <c r="AB60">
+        <v>1.09</v>
+      </c>
+      <c r="AC60">
+        <v>1.95</v>
+      </c>
+      <c r="AD60">
+        <v>3.5</v>
+      </c>
+      <c r="AE60">
+        <v>3.7</v>
+      </c>
+      <c r="AF60">
+        <v>1.05</v>
+      </c>
+      <c r="AG60">
+        <v>11.75</v>
+      </c>
+      <c r="AH60">
+        <v>1.3</v>
+      </c>
+      <c r="AI60">
+        <v>3.6</v>
+      </c>
+      <c r="AJ60">
+        <v>1.85</v>
+      </c>
+      <c r="AK60">
+        <v>2.03</v>
+      </c>
+      <c r="AL60">
+        <v>1.73</v>
+      </c>
+      <c r="AM60">
+        <v>2.06</v>
+      </c>
+      <c r="AN60">
+        <v>1.28</v>
+      </c>
+      <c r="AO60">
+        <v>1.28</v>
+      </c>
+      <c r="AP60">
+        <v>1.84</v>
+      </c>
+      <c r="AQ60">
+        <v>3</v>
+      </c>
+      <c r="AR60">
+        <v>0</v>
+      </c>
+      <c r="AS60">
+        <v>2</v>
+      </c>
+      <c r="AT60">
+        <v>1.5</v>
+      </c>
+      <c r="AU60">
+        <v>1.52</v>
+      </c>
+      <c r="AV60">
+        <v>1.1</v>
+      </c>
+      <c r="AW60">
+        <v>2.62</v>
+      </c>
+      <c r="AX60">
+        <v>1.85</v>
+      </c>
+      <c r="AY60">
+        <v>8</v>
+      </c>
+      <c r="AZ60">
+        <v>2.28</v>
+      </c>
+      <c r="BA60">
+        <v>1.24</v>
+      </c>
+      <c r="BB60">
+        <v>1.55</v>
+      </c>
+      <c r="BC60">
+        <v>1.9</v>
+      </c>
+      <c r="BD60">
+        <v>2.3</v>
+      </c>
+      <c r="BE60">
+        <v>3.3</v>
+      </c>
+      <c r="BF60">
+        <v>8</v>
+      </c>
+      <c r="BG60">
+        <v>6</v>
+      </c>
+      <c r="BH60">
+        <v>1</v>
+      </c>
+      <c r="BI60">
+        <v>8</v>
+      </c>
+      <c r="BJ60">
+        <v>9</v>
+      </c>
+      <c r="BK60">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:63">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>4925994</v>
+      </c>
+      <c r="C61" t="s">
+        <v>63</v>
+      </c>
+      <c r="D61" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>1</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>144</v>
+      </c>
+      <c r="P61" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>1</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>3.18</v>
+      </c>
+      <c r="U61">
+        <v>2.04</v>
+      </c>
+      <c r="V61">
+        <v>3.48</v>
+      </c>
+      <c r="W61">
+        <v>1.45</v>
+      </c>
+      <c r="X61">
+        <v>2.64</v>
+      </c>
+      <c r="Y61">
+        <v>3.1</v>
+      </c>
+      <c r="Z61">
+        <v>1.34</v>
+      </c>
+      <c r="AA61">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB61">
+        <v>1.06</v>
+      </c>
+      <c r="AC61">
+        <v>2.6</v>
+      </c>
+      <c r="AD61">
+        <v>3.2</v>
+      </c>
+      <c r="AE61">
+        <v>2.7</v>
+      </c>
+      <c r="AF61">
+        <v>1.08</v>
+      </c>
+      <c r="AG61">
+        <v>9.25</v>
+      </c>
+      <c r="AH61">
+        <v>1.38</v>
+      </c>
+      <c r="AI61">
+        <v>3.07</v>
+      </c>
+      <c r="AJ61">
+        <v>2.02</v>
+      </c>
+      <c r="AK61">
+        <v>1.81</v>
+      </c>
+      <c r="AL61">
+        <v>1.87</v>
+      </c>
+      <c r="AM61">
+        <v>1.89</v>
+      </c>
+      <c r="AN61">
+        <v>1.44</v>
+      </c>
+      <c r="AO61">
+        <v>1.33</v>
+      </c>
+      <c r="AP61">
+        <v>1.51</v>
+      </c>
+      <c r="AQ61">
+        <v>0</v>
+      </c>
+      <c r="AR61">
+        <v>0.5</v>
+      </c>
+      <c r="AS61">
+        <v>0.33</v>
+      </c>
+      <c r="AT61">
+        <v>0.67</v>
+      </c>
+      <c r="AU61">
+        <v>1.6</v>
+      </c>
+      <c r="AV61">
+        <v>1.76</v>
+      </c>
+      <c r="AW61">
+        <v>3.36</v>
+      </c>
+      <c r="AX61">
+        <v>1.85</v>
+      </c>
+      <c r="AY61">
+        <v>8</v>
+      </c>
+      <c r="AZ61">
+        <v>2.28</v>
+      </c>
+      <c r="BA61">
+        <v>1.24</v>
+      </c>
+      <c r="BB61">
+        <v>1.55</v>
+      </c>
+      <c r="BC61">
+        <v>1.9</v>
+      </c>
+      <c r="BD61">
+        <v>2.3</v>
+      </c>
+      <c r="BE61">
+        <v>3.3</v>
+      </c>
+      <c r="BF61">
+        <v>2</v>
+      </c>
+      <c r="BG61">
+        <v>7</v>
+      </c>
+      <c r="BH61">
+        <v>3</v>
+      </c>
+      <c r="BI61">
+        <v>3</v>
+      </c>
+      <c r="BJ61">
+        <v>5</v>
+      </c>
+      <c r="BK61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:63">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>4925995</v>
+      </c>
+      <c r="C62" t="s">
+        <v>63</v>
+      </c>
+      <c r="D62" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45010.85416666666</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62" t="s">
+        <v>79</v>
+      </c>
+      <c r="H62" t="s">
+        <v>66</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>6</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>7</v>
+      </c>
+      <c r="O62" t="s">
+        <v>145</v>
+      </c>
+      <c r="P62" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q62">
+        <v>8</v>
+      </c>
+      <c r="R62">
+        <v>2</v>
+      </c>
+      <c r="S62">
+        <v>10</v>
+      </c>
+      <c r="T62">
+        <v>3.08</v>
+      </c>
+      <c r="U62">
+        <v>2.19</v>
+      </c>
+      <c r="V62">
+        <v>3.24</v>
+      </c>
+      <c r="W62">
+        <v>1.36</v>
+      </c>
+      <c r="X62">
+        <v>3</v>
+      </c>
+      <c r="Y62">
+        <v>2.68</v>
+      </c>
+      <c r="Z62">
+        <v>1.44</v>
+      </c>
+      <c r="AA62">
+        <v>6.6</v>
+      </c>
+      <c r="AB62">
+        <v>1.09</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>3.5</v>
+      </c>
+      <c r="AE62">
+        <v>3.5</v>
+      </c>
+      <c r="AF62">
+        <v>1.05</v>
+      </c>
+      <c r="AG62">
+        <v>9.75</v>
+      </c>
+      <c r="AH62">
+        <v>1.26</v>
+      </c>
+      <c r="AI62">
+        <v>3.5</v>
+      </c>
+      <c r="AJ62">
+        <v>1.88</v>
+      </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
+      <c r="AL62">
+        <v>1.67</v>
+      </c>
+      <c r="AM62">
+        <v>2.14</v>
+      </c>
+      <c r="AN62">
+        <v>1.48</v>
+      </c>
+      <c r="AO62">
+        <v>1.3</v>
+      </c>
+      <c r="AP62">
+        <v>1.51</v>
+      </c>
+      <c r="AQ62">
+        <v>3</v>
+      </c>
+      <c r="AR62">
+        <v>3</v>
+      </c>
+      <c r="AS62">
+        <v>3</v>
+      </c>
+      <c r="AT62">
+        <v>1.5</v>
+      </c>
+      <c r="AU62">
+        <v>1.31</v>
+      </c>
+      <c r="AV62">
+        <v>1.21</v>
+      </c>
+      <c r="AW62">
+        <v>2.52</v>
+      </c>
+      <c r="AX62">
+        <v>2.19</v>
+      </c>
+      <c r="AY62">
+        <v>7.6</v>
+      </c>
+      <c r="AZ62">
+        <v>1.98</v>
+      </c>
+      <c r="BA62">
+        <v>1.2</v>
+      </c>
+      <c r="BB62">
+        <v>1.48</v>
+      </c>
+      <c r="BC62">
+        <v>1.73</v>
+      </c>
+      <c r="BD62">
+        <v>2.1</v>
+      </c>
+      <c r="BE62">
+        <v>2.7</v>
+      </c>
+      <c r="BF62">
+        <v>7</v>
+      </c>
+      <c r="BG62">
+        <v>2</v>
+      </c>
+      <c r="BH62">
+        <v>4</v>
+      </c>
+      <c r="BI62">
+        <v>0</v>
+      </c>
+      <c r="BJ62">
+        <v>11</v>
+      </c>
+      <c r="BK62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:63">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>4925999</v>
+      </c>
+      <c r="C63" t="s">
+        <v>63</v>
+      </c>
+      <c r="D63" t="s">
+        <v>64</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63" t="s">
+        <v>73</v>
+      </c>
+      <c r="H63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>1</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>2</v>
+      </c>
+      <c r="O63" t="s">
+        <v>146</v>
+      </c>
+      <c r="P63" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q63">
+        <v>3</v>
+      </c>
+      <c r="R63">
+        <v>12</v>
+      </c>
+      <c r="S63">
+        <v>15</v>
+      </c>
+      <c r="T63">
+        <v>2.24</v>
+      </c>
+      <c r="U63">
+        <v>2.47</v>
+      </c>
+      <c r="V63">
+        <v>5.32</v>
+      </c>
+      <c r="W63">
+        <v>1.3</v>
+      </c>
+      <c r="X63">
+        <v>3.4</v>
+      </c>
+      <c r="Y63">
+        <v>2.45</v>
+      </c>
+      <c r="Z63">
+        <v>1.52</v>
+      </c>
+      <c r="AA63">
+        <v>6</v>
+      </c>
+      <c r="AB63">
+        <v>1.12</v>
+      </c>
+      <c r="AC63">
+        <v>1.62</v>
+      </c>
+      <c r="AD63">
+        <v>4</v>
+      </c>
+      <c r="AE63">
+        <v>5</v>
+      </c>
+      <c r="AF63">
+        <v>1.03</v>
+      </c>
+      <c r="AG63">
+        <v>15.75</v>
+      </c>
+      <c r="AH63">
+        <v>1.2</v>
+      </c>
+      <c r="AI63">
+        <v>4</v>
+      </c>
+      <c r="AJ63">
+        <v>1.83</v>
+      </c>
+      <c r="AK63">
+        <v>2.05</v>
+      </c>
+      <c r="AL63">
+        <v>1.7</v>
+      </c>
+      <c r="AM63">
+        <v>2.1</v>
+      </c>
+      <c r="AN63">
+        <v>1.15</v>
+      </c>
+      <c r="AO63">
+        <v>1.17</v>
+      </c>
+      <c r="AP63">
+        <v>2.25</v>
+      </c>
+      <c r="AQ63">
+        <v>1.5</v>
+      </c>
+      <c r="AR63">
+        <v>0</v>
+      </c>
+      <c r="AS63">
+        <v>1.33</v>
+      </c>
+      <c r="AT63">
+        <v>0.33</v>
+      </c>
+      <c r="AU63">
+        <v>1.11</v>
+      </c>
+      <c r="AV63">
+        <v>0.93</v>
+      </c>
+      <c r="AW63">
+        <v>2.04</v>
+      </c>
+      <c r="AX63">
+        <v>1.38</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
+        <v>3.75</v>
+      </c>
+      <c r="BA63">
+        <v>1.2</v>
+      </c>
+      <c r="BB63">
+        <v>1.39</v>
+      </c>
+      <c r="BC63">
+        <v>1.75</v>
+      </c>
+      <c r="BD63">
+        <v>2.2</v>
+      </c>
+      <c r="BE63">
+        <v>3</v>
+      </c>
+      <c r="BF63">
+        <v>4</v>
+      </c>
+      <c r="BG63">
+        <v>9</v>
+      </c>
+      <c r="BH63">
+        <v>4</v>
+      </c>
+      <c r="BI63">
+        <v>8</v>
+      </c>
+      <c r="BJ63">
+        <v>8</v>
+      </c>
+      <c r="BK63">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:63">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>4926000</v>
+      </c>
+      <c r="C64" t="s">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>64</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64" t="s">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s">
+        <v>86</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
+        <v>147</v>
+      </c>
+      <c r="P64" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q64">
+        <v>1</v>
+      </c>
+      <c r="R64">
+        <v>5</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>3.1</v>
+      </c>
+      <c r="U64">
+        <v>2.15</v>
+      </c>
+      <c r="V64">
+        <v>3.2</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>3</v>
+      </c>
+      <c r="Y64">
+        <v>2.75</v>
+      </c>
+      <c r="Z64">
+        <v>1.42</v>
+      </c>
+      <c r="AA64">
+        <v>6.5</v>
+      </c>
+      <c r="AB64">
+        <v>1.09</v>
+      </c>
+      <c r="AC64">
+        <v>2.6</v>
+      </c>
+      <c r="AD64">
+        <v>3.25</v>
+      </c>
+      <c r="AE64">
+        <v>2.62</v>
+      </c>
+      <c r="AF64">
+        <v>1.04</v>
+      </c>
+      <c r="AG64">
+        <v>11</v>
+      </c>
+      <c r="AH64">
+        <v>1.28</v>
+      </c>
+      <c r="AI64">
+        <v>3.75</v>
+      </c>
+      <c r="AJ64">
+        <v>1.88</v>
+      </c>
+      <c r="AK64">
+        <v>2</v>
+      </c>
+      <c r="AL64">
+        <v>1.66</v>
+      </c>
+      <c r="AM64">
+        <v>2.15</v>
+      </c>
+      <c r="AN64">
+        <v>1.47</v>
+      </c>
+      <c r="AO64">
+        <v>1.28</v>
+      </c>
+      <c r="AP64">
+        <v>1.5</v>
+      </c>
+      <c r="AQ64">
+        <v>3</v>
+      </c>
+      <c r="AR64">
+        <v>0.5</v>
+      </c>
+      <c r="AS64">
+        <v>3</v>
+      </c>
+      <c r="AT64">
+        <v>0.33</v>
+      </c>
+      <c r="AU64">
+        <v>1.56</v>
+      </c>
+      <c r="AV64">
+        <v>1.08</v>
+      </c>
+      <c r="AW64">
+        <v>2.64</v>
+      </c>
+      <c r="AX64">
+        <v>1.8</v>
+      </c>
+      <c r="AY64">
+        <v>6</v>
+      </c>
+      <c r="AZ64">
+        <v>2.3</v>
+      </c>
+      <c r="BA64">
+        <v>1.21</v>
+      </c>
+      <c r="BB64">
+        <v>1.41</v>
+      </c>
+      <c r="BC64">
+        <v>1.73</v>
+      </c>
+      <c r="BD64">
+        <v>2.25</v>
+      </c>
+      <c r="BE64">
+        <v>3.1</v>
+      </c>
+      <c r="BF64">
+        <v>3</v>
+      </c>
+      <c r="BG64">
+        <v>2</v>
+      </c>
+      <c r="BH64">
+        <v>6</v>
+      </c>
+      <c r="BI64">
+        <v>2</v>
+      </c>
+      <c r="BJ64">
+        <v>9</v>
+      </c>
+      <c r="BK64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:63">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>4926001</v>
+      </c>
+      <c r="C65" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>64</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65" t="s">
+        <v>88</v>
+      </c>
+      <c r="H65" t="s">
+        <v>76</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>2</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>4</v>
+      </c>
+      <c r="N65">
+        <v>5</v>
+      </c>
+      <c r="O65" t="s">
+        <v>146</v>
+      </c>
+      <c r="P65" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q65">
+        <v>3</v>
+      </c>
+      <c r="R65">
+        <v>3</v>
+      </c>
+      <c r="S65">
+        <v>6</v>
+      </c>
+      <c r="T65">
+        <v>3.11</v>
+      </c>
+      <c r="U65">
+        <v>2.28</v>
+      </c>
+      <c r="V65">
+        <v>3.6</v>
+      </c>
+      <c r="W65">
+        <v>1.39</v>
+      </c>
+      <c r="X65">
+        <v>2.8</v>
+      </c>
+      <c r="Y65">
+        <v>2.92</v>
+      </c>
+      <c r="Z65">
+        <v>1.41</v>
+      </c>
+      <c r="AA65">
+        <v>6.75</v>
+      </c>
+      <c r="AB65">
+        <v>1.09</v>
+      </c>
+      <c r="AC65">
+        <v>2.38</v>
+      </c>
+      <c r="AD65">
+        <v>3.3</v>
+      </c>
+      <c r="AE65">
+        <v>2.9</v>
+      </c>
+      <c r="AF65">
+        <v>1.02</v>
+      </c>
+      <c r="AG65">
+        <v>9.5</v>
+      </c>
+      <c r="AH65">
+        <v>1.28</v>
+      </c>
+      <c r="AI65">
+        <v>3.6</v>
+      </c>
+      <c r="AJ65">
+        <v>1.93</v>
+      </c>
+      <c r="AK65">
+        <v>1.95</v>
+      </c>
+      <c r="AL65">
+        <v>1.68</v>
+      </c>
+      <c r="AM65">
+        <v>2.05</v>
+      </c>
+      <c r="AN65">
+        <v>1.4</v>
+      </c>
+      <c r="AO65">
+        <v>1.32</v>
+      </c>
+      <c r="AP65">
+        <v>1.45</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>0</v>
+      </c>
+      <c r="AS65">
+        <v>0.5</v>
+      </c>
+      <c r="AT65">
+        <v>1.5</v>
+      </c>
+      <c r="AU65">
+        <v>2.67</v>
+      </c>
+      <c r="AV65">
+        <v>1.05</v>
+      </c>
+      <c r="AW65">
+        <v>3.72</v>
+      </c>
+      <c r="AX65">
+        <v>1.58</v>
+      </c>
+      <c r="AY65">
+        <v>6.25</v>
+      </c>
+      <c r="AZ65">
+        <v>2.9</v>
+      </c>
+      <c r="BA65">
+        <v>1.27</v>
+      </c>
+      <c r="BB65">
+        <v>1.5</v>
+      </c>
+      <c r="BC65">
+        <v>1.83</v>
+      </c>
+      <c r="BD65">
+        <v>2.45</v>
+      </c>
+      <c r="BE65">
+        <v>3.4</v>
+      </c>
+      <c r="BF65">
+        <v>4</v>
+      </c>
+      <c r="BG65">
+        <v>8</v>
+      </c>
+      <c r="BH65">
+        <v>2</v>
+      </c>
+      <c r="BI65">
+        <v>2</v>
+      </c>
+      <c r="BJ65">
+        <v>6</v>
+      </c>
+      <c r="BK65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:63">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>4926002</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+      <c r="D66" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66" t="s">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s">
+        <v>75</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>1</v>
+      </c>
+      <c r="L66">
+        <v>1</v>
+      </c>
+      <c r="M66">
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>148</v>
+      </c>
+      <c r="P66" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q66">
+        <v>2</v>
+      </c>
+      <c r="R66">
+        <v>10</v>
+      </c>
+      <c r="S66">
+        <v>12</v>
+      </c>
+      <c r="T66">
+        <v>2.46</v>
+      </c>
+      <c r="U66">
+        <v>2.35</v>
+      </c>
+      <c r="V66">
+        <v>4.15</v>
+      </c>
+      <c r="W66">
+        <v>1.36</v>
+      </c>
+      <c r="X66">
+        <v>3.27</v>
+      </c>
+      <c r="Y66">
+        <v>2.78</v>
+      </c>
+      <c r="Z66">
+        <v>1.47</v>
+      </c>
+      <c r="AA66">
+        <v>5.75</v>
+      </c>
+      <c r="AB66">
+        <v>1.1</v>
+      </c>
+      <c r="AC66">
+        <v>2</v>
+      </c>
+      <c r="AD66">
+        <v>3.4</v>
+      </c>
+      <c r="AE66">
+        <v>3.6</v>
+      </c>
+      <c r="AF66">
+        <v>1.03</v>
+      </c>
+      <c r="AG66">
+        <v>13</v>
+      </c>
+      <c r="AH66">
+        <v>1.25</v>
+      </c>
+      <c r="AI66">
+        <v>3.6</v>
+      </c>
+      <c r="AJ66">
+        <v>1.67</v>
+      </c>
+      <c r="AK66">
+        <v>2</v>
+      </c>
+      <c r="AL66">
+        <v>1.66</v>
+      </c>
+      <c r="AM66">
+        <v>2.14</v>
+      </c>
+      <c r="AN66">
+        <v>1.28</v>
+      </c>
+      <c r="AO66">
+        <v>1.28</v>
+      </c>
+      <c r="AP66">
+        <v>1.85</v>
+      </c>
+      <c r="AQ66">
+        <v>1</v>
+      </c>
+      <c r="AR66">
+        <v>0.5</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>0.67</v>
+      </c>
+      <c r="AU66">
+        <v>1.14</v>
+      </c>
+      <c r="AV66">
+        <v>1.08</v>
+      </c>
+      <c r="AW66">
+        <v>2.22</v>
+      </c>
+      <c r="AX66">
+        <v>1.62</v>
+      </c>
+      <c r="AY66">
+        <v>6.25</v>
+      </c>
+      <c r="AZ66">
+        <v>2.75</v>
+      </c>
+      <c r="BA66">
+        <v>1.15</v>
+      </c>
+      <c r="BB66">
+        <v>1.31</v>
+      </c>
+      <c r="BC66">
+        <v>1.59</v>
+      </c>
+      <c r="BD66">
+        <v>1.95</v>
+      </c>
+      <c r="BE66">
+        <v>2.4</v>
+      </c>
+      <c r="BF66">
+        <v>3</v>
+      </c>
+      <c r="BG66">
+        <v>6</v>
+      </c>
+      <c r="BH66">
+        <v>3</v>
+      </c>
+      <c r="BI66">
+        <v>14</v>
+      </c>
+      <c r="BJ66">
+        <v>6</v>
+      </c>
+      <c r="BK66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:63">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>4926003</v>
+      </c>
+      <c r="C67" t="s">
+        <v>63</v>
+      </c>
+      <c r="D67" t="s">
+        <v>64</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45010.89583333334</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67" t="s">
+        <v>65</v>
+      </c>
+      <c r="H67" t="s">
+        <v>68</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
+        <v>96</v>
+      </c>
+      <c r="P67" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q67">
+        <v>3</v>
+      </c>
+      <c r="R67">
+        <v>2</v>
+      </c>
+      <c r="S67">
+        <v>5</v>
+      </c>
+      <c r="T67">
+        <v>2.76</v>
+      </c>
+      <c r="U67">
+        <v>2.09</v>
+      </c>
+      <c r="V67">
+        <v>4.41</v>
+      </c>
+      <c r="W67">
+        <v>1.41</v>
+      </c>
+      <c r="X67">
+        <v>2.9</v>
+      </c>
+      <c r="Y67">
+        <v>2.9</v>
+      </c>
+      <c r="Z67">
+        <v>1.37</v>
+      </c>
+      <c r="AA67">
+        <v>8.25</v>
+      </c>
+      <c r="AB67">
+        <v>1.07</v>
+      </c>
+      <c r="AC67">
+        <v>1.95</v>
+      </c>
+      <c r="AD67">
+        <v>3.3</v>
+      </c>
+      <c r="AE67">
+        <v>3.9</v>
+      </c>
+      <c r="AF67">
+        <v>1.05</v>
+      </c>
+      <c r="AG67">
+        <v>10</v>
+      </c>
+      <c r="AH67">
+        <v>1.3</v>
+      </c>
+      <c r="AI67">
+        <v>3.2</v>
+      </c>
+      <c r="AJ67">
+        <v>2.03</v>
+      </c>
+      <c r="AK67">
+        <v>1.85</v>
+      </c>
+      <c r="AL67">
+        <v>1.83</v>
+      </c>
+      <c r="AM67">
+        <v>2</v>
+      </c>
+      <c r="AN67">
+        <v>1.29</v>
+      </c>
+      <c r="AO67">
+        <v>1.33</v>
+      </c>
+      <c r="AP67">
+        <v>1.85</v>
+      </c>
+      <c r="AQ67">
+        <v>3</v>
+      </c>
+      <c r="AR67">
+        <v>1</v>
+      </c>
+      <c r="AS67">
+        <v>2</v>
+      </c>
+      <c r="AT67">
+        <v>1.67</v>
+      </c>
+      <c r="AU67">
+        <v>1.3</v>
+      </c>
+      <c r="AV67">
+        <v>1.63</v>
+      </c>
+      <c r="AW67">
+        <v>2.93</v>
+      </c>
+      <c r="AX67">
+        <v>1.39</v>
+      </c>
+      <c r="AY67">
+        <v>6.5</v>
+      </c>
+      <c r="AZ67">
+        <v>3.6</v>
+      </c>
+      <c r="BA67">
+        <v>1.21</v>
+      </c>
+      <c r="BB67">
+        <v>1.39</v>
+      </c>
+      <c r="BC67">
+        <v>1.78</v>
+      </c>
+      <c r="BD67">
+        <v>2.19</v>
+      </c>
+      <c r="BE67">
+        <v>3</v>
+      </c>
+      <c r="BF67">
+        <v>4</v>
+      </c>
+      <c r="BG67">
+        <v>8</v>
+      </c>
+      <c r="BH67">
+        <v>8</v>
+      </c>
+      <c r="BI67">
+        <v>5</v>
+      </c>
+      <c r="BJ67">
+        <v>12</v>
+      </c>
+      <c r="BK67">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:63">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>4926004</v>
+      </c>
+      <c r="C68" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" t="s">
+        <v>64</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45010.9375</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68" t="s">
+        <v>90</v>
+      </c>
+      <c r="H68" t="s">
+        <v>83</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>4</v>
+      </c>
+      <c r="N68">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>96</v>
+      </c>
+      <c r="P68" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q68">
+        <v>3</v>
+      </c>
+      <c r="R68">
+        <v>1</v>
+      </c>
+      <c r="S68">
+        <v>4</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>0</v>
+      </c>
+      <c r="Y68">
+        <v>0</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+      <c r="AA68">
+        <v>0</v>
+      </c>
+      <c r="AB68">
+        <v>0</v>
+      </c>
+      <c r="AC68">
+        <v>2.3</v>
+      </c>
+      <c r="AD68">
+        <v>3.5</v>
+      </c>
+      <c r="AE68">
+        <v>2.88</v>
+      </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
+      <c r="AI68">
+        <v>0</v>
+      </c>
+      <c r="AJ68">
+        <v>1.6</v>
+      </c>
+      <c r="AK68">
+        <v>2.1</v>
+      </c>
+      <c r="AL68">
+        <v>0</v>
+      </c>
+      <c r="AM68">
+        <v>0</v>
+      </c>
+      <c r="AN68">
+        <v>0</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>0</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>3</v>
+      </c>
+      <c r="AS68">
+        <v>0</v>
+      </c>
+      <c r="AT68">
+        <v>3</v>
+      </c>
+      <c r="AU68">
+        <v>1.9</v>
+      </c>
+      <c r="AV68">
+        <v>1.43</v>
+      </c>
+      <c r="AW68">
+        <v>3.33</v>
+      </c>
+      <c r="AX68">
+        <v>0</v>
+      </c>
+      <c r="AY68">
+        <v>0</v>
+      </c>
+      <c r="AZ68">
+        <v>0</v>
+      </c>
+      <c r="BA68">
+        <v>0</v>
+      </c>
+      <c r="BB68">
+        <v>0</v>
+      </c>
+      <c r="BC68">
+        <v>0</v>
+      </c>
+      <c r="BD68">
+        <v>0</v>
+      </c>
+      <c r="BE68">
+        <v>0</v>
+      </c>
+      <c r="BF68">
+        <v>5</v>
+      </c>
+      <c r="BG68">
+        <v>3</v>
+      </c>
+      <c r="BH68">
+        <v>1</v>
+      </c>
+      <c r="BI68">
+        <v>1</v>
+      </c>
+      <c r="BJ68">
+        <v>6</v>
+      </c>
+      <c r="BK68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:63">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>4926005</v>
+      </c>
+      <c r="C69" t="s">
+        <v>63</v>
+      </c>
+      <c r="D69" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45010.97916666666</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>2</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>3</v>
+      </c>
+      <c r="O69" t="s">
+        <v>149</v>
+      </c>
+      <c r="P69" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q69">
+        <v>7</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>7</v>
+      </c>
+      <c r="T69">
+        <v>2.2</v>
+      </c>
+      <c r="U69">
+        <v>2.28</v>
+      </c>
+      <c r="V69">
+        <v>4.8</v>
+      </c>
+      <c r="W69">
+        <v>1.3</v>
+      </c>
+      <c r="X69">
+        <v>3.2</v>
+      </c>
+      <c r="Y69">
+        <v>2.5</v>
+      </c>
+      <c r="Z69">
+        <v>1.45</v>
+      </c>
+      <c r="AA69">
+        <v>6</v>
+      </c>
+      <c r="AB69">
+        <v>1.11</v>
+      </c>
+      <c r="AC69">
+        <v>1.6</v>
+      </c>
+      <c r="AD69">
+        <v>3.9</v>
+      </c>
+      <c r="AE69">
+        <v>5.5</v>
+      </c>
+      <c r="AF69">
+        <v>1.02</v>
+      </c>
+      <c r="AG69">
+        <v>15</v>
+      </c>
+      <c r="AH69">
+        <v>1.22</v>
+      </c>
+      <c r="AI69">
+        <v>4.2</v>
+      </c>
+      <c r="AJ69">
+        <v>1.61</v>
+      </c>
+      <c r="AK69">
+        <v>2.05</v>
+      </c>
+      <c r="AL69">
+        <v>1.78</v>
+      </c>
+      <c r="AM69">
+        <v>2.01</v>
+      </c>
+      <c r="AN69">
+        <v>1.15</v>
+      </c>
+      <c r="AO69">
+        <v>1.18</v>
+      </c>
+      <c r="AP69">
+        <v>2.35</v>
+      </c>
+      <c r="AQ69">
+        <v>3</v>
+      </c>
+      <c r="AR69">
+        <v>1</v>
+      </c>
+      <c r="AS69">
+        <v>3</v>
+      </c>
+      <c r="AT69">
+        <v>0.5</v>
+      </c>
+      <c r="AU69">
+        <v>1.85</v>
+      </c>
+      <c r="AV69">
+        <v>1.35</v>
+      </c>
+      <c r="AW69">
+        <v>3.2</v>
+      </c>
+      <c r="AX69">
+        <v>1.44</v>
+      </c>
+      <c r="AY69">
+        <v>9.1</v>
+      </c>
+      <c r="AZ69">
+        <v>3.54</v>
+      </c>
+      <c r="BA69">
+        <v>1.18</v>
+      </c>
+      <c r="BB69">
+        <v>1.35</v>
+      </c>
+      <c r="BC69">
+        <v>1.63</v>
+      </c>
+      <c r="BD69">
+        <v>2.1</v>
+      </c>
+      <c r="BE69">
+        <v>2.8</v>
+      </c>
+      <c r="BF69">
+        <v>7</v>
+      </c>
+      <c r="BG69">
+        <v>4</v>
+      </c>
+      <c r="BH69">
+        <v>10</v>
+      </c>
+      <c r="BI69">
+        <v>2</v>
+      </c>
+      <c r="BJ69">
+        <v>17</v>
+      </c>
+      <c r="BK69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:63">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>4926006</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+      <c r="D70" t="s">
+        <v>64</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45010.97916666666</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70" t="s">
+        <v>85</v>
+      </c>
+      <c r="H70" t="s">
+        <v>87</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>96</v>
+      </c>
+      <c r="P70" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q70">
+        <v>6</v>
+      </c>
+      <c r="R70">
+        <v>3</v>
+      </c>
+      <c r="S70">
+        <v>9</v>
+      </c>
+      <c r="T70">
+        <v>2.44</v>
+      </c>
+      <c r="U70">
+        <v>2.21</v>
+      </c>
+      <c r="V70">
+        <v>4.2</v>
+      </c>
+      <c r="W70">
+        <v>1.34</v>
+      </c>
+      <c r="X70">
+        <v>3.4</v>
+      </c>
+      <c r="Y70">
+        <v>2.67</v>
+      </c>
+      <c r="Z70">
+        <v>1.51</v>
+      </c>
+      <c r="AA70">
+        <v>6</v>
+      </c>
+      <c r="AB70">
+        <v>1.11</v>
+      </c>
+      <c r="AC70">
+        <v>1.91</v>
+      </c>
+      <c r="AD70">
+        <v>3.6</v>
+      </c>
+      <c r="AE70">
+        <v>3.7</v>
+      </c>
+      <c r="AF70">
+        <v>1</v>
+      </c>
+      <c r="AG70">
+        <v>11</v>
+      </c>
+      <c r="AH70">
+        <v>1.18</v>
+      </c>
+      <c r="AI70">
+        <v>4.2</v>
+      </c>
+      <c r="AJ70">
+        <v>1.67</v>
+      </c>
+      <c r="AK70">
+        <v>2</v>
+      </c>
+      <c r="AL70">
+        <v>1.66</v>
+      </c>
+      <c r="AM70">
+        <v>2.18</v>
+      </c>
+      <c r="AN70">
+        <v>1.22</v>
+      </c>
+      <c r="AO70">
+        <v>1.26</v>
+      </c>
+      <c r="AP70">
+        <v>2.02</v>
+      </c>
+      <c r="AQ70">
+        <v>3</v>
+      </c>
+      <c r="AR70">
+        <v>0.5</v>
+      </c>
+      <c r="AS70">
+        <v>2.33</v>
+      </c>
+      <c r="AT70">
+        <v>0.67</v>
+      </c>
+      <c r="AU70">
+        <v>1.67</v>
+      </c>
+      <c r="AV70">
+        <v>0.97</v>
+      </c>
+      <c r="AW70">
+        <v>2.64</v>
+      </c>
+      <c r="AX70">
+        <v>1.49</v>
+      </c>
+      <c r="AY70">
+        <v>8.9</v>
+      </c>
+      <c r="AZ70">
+        <v>3.3</v>
+      </c>
+      <c r="BA70">
+        <v>1.2</v>
+      </c>
+      <c r="BB70">
+        <v>1.39</v>
+      </c>
+      <c r="BC70">
+        <v>1.7</v>
+      </c>
+      <c r="BD70">
+        <v>2.2</v>
+      </c>
+      <c r="BE70">
+        <v>2.95</v>
+      </c>
+      <c r="BF70">
+        <v>3</v>
+      </c>
+      <c r="BG70">
+        <v>3</v>
+      </c>
+      <c r="BH70">
+        <v>11</v>
+      </c>
+      <c r="BI70">
+        <v>6</v>
+      </c>
+      <c r="BJ70">
+        <v>14</v>
+      </c>
+      <c r="BK70">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -13783,13 +13783,13 @@
         <v>183</v>
       </c>
       <c r="Q68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="R68">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S68">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="T68">
         <v>0</v>
@@ -13906,22 +13906,22 @@
         <v>0</v>
       </c>
       <c r="BF68">
+        <v>9</v>
+      </c>
+      <c r="BG68">
         <v>5</v>
       </c>
-      <c r="BG68">
-        <v>3</v>
-      </c>
       <c r="BH68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BI68">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ68">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="BK68">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:63">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK70"/>
+  <dimension ref="A1:BK84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>2</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT3" t="n">
         <v>0</v>
@@ -2118,10 +2118,10 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT9" t="n">
         <v>0.33</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT16" t="n">
         <v>0.67</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
         <v>1.67</v>
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
         <v>0.67</v>
@@ -5569,10 +5569,10 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT26" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>0.33</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.33</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT28" t="n">
         <v>0.67</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>0.5</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT34" t="n">
         <v>1.5</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT35" t="n">
         <v>0.33</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>0</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT41" t="n">
         <v>0.33</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10441,10 +10441,10 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT49" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT49" t="n">
-        <v>1.5</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>0</v>
@@ -11659,7 +11659,7 @@
         <v>3</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT55" t="n">
         <v>3</v>
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AT56" t="n">
         <v>0.67</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT58" t="n">
         <v>2</v>
@@ -12880,7 +12880,7 @@
         <v>0.33</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU61" t="n">
         <v>1.6</v>
@@ -13489,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU64" t="n">
         <v>1.56</v>
@@ -13692,7 +13692,7 @@
         <v>0.5</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AU65" t="n">
         <v>2.67</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.67</v>
@@ -14759,6 +14759,2848 @@
       </c>
       <c r="BK70" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>4926014</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>2</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="n">
+        <v>4</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['6', '44']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['50', '70']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>10</v>
+      </c>
+      <c r="R71" t="n">
+        <v>7</v>
+      </c>
+      <c r="S71" t="n">
+        <v>17</v>
+      </c>
+      <c r="T71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X71" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>4926012</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1</v>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" t="n">
+        <v>2</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['28', '74']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>10</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2</v>
+      </c>
+      <c r="S72" t="n">
+        <v>12</v>
+      </c>
+      <c r="T72" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V72" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X72" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>4926011</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1</v>
+      </c>
+      <c r="N73" t="n">
+        <v>2</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>9</v>
+      </c>
+      <c r="S73" t="n">
+        <v>13</v>
+      </c>
+      <c r="T73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>4926010</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>2</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['21', '35']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>13</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2</v>
+      </c>
+      <c r="S74" t="n">
+        <v>15</v>
+      </c>
+      <c r="T74" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U74" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>4926009</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>2</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
+      <c r="M75" t="n">
+        <v>0</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>['14', '41', '53', '90+3']</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>6</v>
+      </c>
+      <c r="T75" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X75" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>4926008</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="n">
+        <v>0</v>
+      </c>
+      <c r="N76" t="n">
+        <v>1</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['45+5']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>8</v>
+      </c>
+      <c r="T76" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U76" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>4926007</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45017.85416666666</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="n">
+        <v>0</v>
+      </c>
+      <c r="N77" t="n">
+        <v>1</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>8</v>
+      </c>
+      <c r="T77" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V77" t="n">
+        <v>4</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4926015</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45017.89583333334</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>0</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>9</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>12</v>
+      </c>
+      <c r="T78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V78" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>4926016</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45017.89583333334</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>['90+1']</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>11</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13</v>
+      </c>
+      <c r="T79" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V79" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4926017</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45017.89583333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>8</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>4926013</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45017.90277777778</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>8</v>
+      </c>
+      <c r="S81" t="n">
+        <v>11</v>
+      </c>
+      <c r="T81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>4926018</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45017.9375</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>10</v>
+      </c>
+      <c r="R82" t="n">
+        <v>3</v>
+      </c>
+      <c r="S82" t="n">
+        <v>13</v>
+      </c>
+      <c r="T82" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U82" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4926019</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45017.97916666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>1</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>2</v>
+      </c>
+      <c r="L83" t="n">
+        <v>2</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1</v>
+      </c>
+      <c r="N83" t="n">
+        <v>3</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>['7', '65']</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2</v>
+      </c>
+      <c r="S83" t="n">
+        <v>7</v>
+      </c>
+      <c r="T83" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V83" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X83" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>4926020</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45017.97916666666</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>3</v>
+      </c>
+      <c r="L84" t="n">
+        <v>5</v>
+      </c>
+      <c r="M84" t="n">
+        <v>0</v>
+      </c>
+      <c r="N84" t="n">
+        <v>5</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['38', '43', '45', '48', '59']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>6</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1</v>
+      </c>
+      <c r="S84" t="n">
+        <v>7</v>
+      </c>
+      <c r="T84" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V84" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X84" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -2449,31 +2449,31 @@
         <v>16</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>2.23</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AC10" t="n">
         <v>1.53</v>
@@ -2485,16 +2485,16 @@
         <v>5.8</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>4.44</v>
       </c>
       <c r="AJ10" t="n">
         <v>1.66</v>
@@ -2503,19 +2503,19 @@
         <v>2.12</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AQ10" t="n">
         <v>0</v>
@@ -2539,43 +2539,43 @@
         <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB10" t="n">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BC10" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BD10" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BE10" t="n">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="BF10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BG10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BH10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BI10" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BJ10" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BK10" t="n">
         <v>14</v>
@@ -4966,13 +4966,13 @@
         <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>0.91</v>
+        <v>1.37</v>
       </c>
       <c r="AV22" t="n">
         <v>1.93</v>
       </c>
       <c r="AW22" t="n">
-        <v>2.84</v>
+        <v>3.3</v>
       </c>
       <c r="AX22" t="n">
         <v>1.91</v>
@@ -5494,31 +5494,31 @@
         <v>7</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z25" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AA25" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC25" t="n">
         <v>2.4</v>
@@ -5530,16 +5530,16 @@
         <v>2.7</v>
       </c>
       <c r="AF25" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG25" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ25" t="n">
         <v>1.75</v>
@@ -5548,19 +5548,19 @@
         <v>1.93</v>
       </c>
       <c r="AL25" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM25" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN25" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AO25" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP25" t="n">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -5584,34 +5584,34 @@
         <v>0</v>
       </c>
       <c r="AX25" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AY25" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AZ25" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BA25" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB25" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="BC25" t="n">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="BD25" t="n">
-        <v>0</v>
+        <v>2.26</v>
       </c>
       <c r="BE25" t="n">
-        <v>0</v>
+        <v>3.24</v>
       </c>
       <c r="BF25" t="n">
         <v>6</v>
       </c>
       <c r="BG25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH25" t="n">
         <v>3</v>
@@ -5623,7 +5623,7 @@
         <v>9</v>
       </c>
       <c r="BK25" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -8539,31 +8539,31 @@
         <v>12</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AC40" t="n">
         <v>1.88</v>
@@ -8575,16 +8575,16 @@
         <v>3.42</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG40" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AH40" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI40" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ40" t="n">
         <v>1.75</v>
@@ -8593,19 +8593,19 @@
         <v>1.98</v>
       </c>
       <c r="AL40" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM40" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN40" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AO40" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AP40" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AQ40" t="n">
         <v>3</v>
@@ -8623,52 +8623,52 @@
         <v>1.06</v>
       </c>
       <c r="AV40" t="n">
-        <v>1.69</v>
+        <v>1.9</v>
       </c>
       <c r="AW40" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="AX40" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AY40" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ40" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BA40" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="BB40" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="BC40" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BD40" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="BE40" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BF40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH40" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BI40" t="n">
         <v>4</v>
       </c>
       <c r="BJ40" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BK40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41">
@@ -10450,10 +10450,10 @@
         <v>0.89</v>
       </c>
       <c r="AV49" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AW49" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AX49" t="n">
         <v>1.75</v>
@@ -11381,31 +11381,31 @@
         <v>13</v>
       </c>
       <c r="T54" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="V54" t="n">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="X54" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="Y54" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z54" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AA54" t="n">
-        <v>0</v>
+        <v>6.75</v>
       </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AC54" t="n">
         <v>1.81</v>
@@ -11417,16 +11417,16 @@
         <v>3.45</v>
       </c>
       <c r="AF54" t="n">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AG54" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI54" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AJ54" t="n">
         <v>1.71</v>
@@ -11435,19 +11435,19 @@
         <v>2.01</v>
       </c>
       <c r="AL54" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AM54" t="n">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AN54" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AO54" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AP54" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AQ54" t="n">
         <v>3</v>
@@ -11471,43 +11471,43 @@
         <v>2.82</v>
       </c>
       <c r="AX54" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AY54" t="n">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="AZ54" t="n">
-        <v>0</v>
+        <v>3.08</v>
       </c>
       <c r="BA54" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB54" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BC54" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD54" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BE54" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BF54" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BG54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BH54" t="n">
         <v>5</v>
       </c>
       <c r="BI54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ54" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BK54" t="n">
         <v>11</v>
@@ -12071,13 +12071,13 @@
         <v>0.67</v>
       </c>
       <c r="AU57" t="n">
-        <v>1.07</v>
+        <v>1.23</v>
       </c>
       <c r="AV57" t="n">
         <v>1.12</v>
       </c>
       <c r="AW57" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="AX57" t="n">
         <v>2.08</v>
@@ -13289,13 +13289,13 @@
         <v>0.33</v>
       </c>
       <c r="AU63" t="n">
-        <v>1.11</v>
+        <v>1.34</v>
       </c>
       <c r="AV63" t="n">
         <v>0.93</v>
       </c>
       <c r="AW63" t="n">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="AX63" t="n">
         <v>1.38</v>
@@ -14223,31 +14223,31 @@
         <v>13</v>
       </c>
       <c r="T68" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
       <c r="U68" t="n">
-        <v>0</v>
+        <v>2.17</v>
       </c>
       <c r="V68" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="W68" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="X68" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="Y68" t="n">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="Z68" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AA68" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AB68" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC68" t="n">
         <v>2.3</v>
@@ -14259,16 +14259,16 @@
         <v>2.88</v>
       </c>
       <c r="AF68" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AG68" t="n">
-        <v>0</v>
+        <v>9.75</v>
       </c>
       <c r="AH68" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AI68" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="AJ68" t="n">
         <v>1.6</v>
@@ -14277,19 +14277,19 @@
         <v>2.1</v>
       </c>
       <c r="AL68" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM68" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AN68" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AO68" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AP68" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>0</v>
@@ -14307,40 +14307,40 @@
         <v>1.9</v>
       </c>
       <c r="AV68" t="n">
-        <v>1.43</v>
+        <v>1.6</v>
       </c>
       <c r="AW68" t="n">
-        <v>3.33</v>
+        <v>3.5</v>
       </c>
       <c r="AX68" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY68" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AZ68" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="BA68" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB68" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="BC68" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="BD68" t="n">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="BE68" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="BF68" t="n">
         <v>9</v>
       </c>
       <c r="BG68" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BH68" t="n">
         <v>3</v>
@@ -14352,7 +14352,7 @@
         <v>12</v>
       </c>
       <c r="BK68" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69">
@@ -14916,10 +14916,10 @@
         <v>1.3</v>
       </c>
       <c r="AV71" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="AW71" t="n">
-        <v>2.31</v>
+        <v>2.37</v>
       </c>
       <c r="AX71" t="n">
         <v>1.74</v>
@@ -16659,31 +16659,31 @@
         <v>8</v>
       </c>
       <c r="T80" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U80" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="V80" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>3.22</v>
       </c>
       <c r="Y80" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="Z80" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AA80" t="n">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="AB80" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AC80" t="n">
         <v>1.92</v>
@@ -16695,16 +16695,16 @@
         <v>3.8</v>
       </c>
       <c r="AF80" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AG80" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AH80" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AI80" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AJ80" t="n">
         <v>1.7</v>
@@ -16713,19 +16713,19 @@
         <v>2.1</v>
       </c>
       <c r="AL80" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AM80" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AN80" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="AO80" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AP80" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AQ80" t="n">
         <v>3</v>
@@ -16740,55 +16740,55 @@
         <v>3</v>
       </c>
       <c r="AU80" t="n">
-        <v>1.55</v>
+        <v>1.69</v>
       </c>
       <c r="AV80" t="n">
         <v>1.19</v>
       </c>
       <c r="AW80" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="AX80" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AY80" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AZ80" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="BA80" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="BB80" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="BC80" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="BD80" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BE80" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="BF80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BG80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BH80" t="n">
         <v>11</v>
       </c>
       <c r="BI80" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BJ80" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BK80" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81">

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK84"/>
+  <dimension ref="A1:BK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT2" t="n">
         <v>0.5</v>
@@ -1106,7 +1106,7 @@
         <v>2.5</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT12" t="n">
         <v>1</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2.5</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU16" t="n">
         <v>2.25</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT19" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT20" t="n">
         <v>1.33</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5369,7 +5369,7 @@
         <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU24" t="n">
         <v>1.31</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU25" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1</v>
@@ -6384,7 +6384,7 @@
         <v>0.33</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT30" t="n">
         <v>1.33</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>0.5</v>
       </c>
       <c r="AU30" t="n">
         <v>2.28</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>2</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.67</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT36" t="n">
         <v>0.5</v>
-      </c>
-      <c r="AT36" t="n">
-        <v>0.67</v>
       </c>
       <c r="AU36" t="n">
         <v>0</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0</v>
@@ -8411,10 +8411,10 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>0</v>
@@ -8617,7 +8617,7 @@
         <v>1.33</v>
       </c>
       <c r="AT40" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU40" t="n">
         <v>1.06</v>
@@ -8820,7 +8820,7 @@
         <v>2.5</v>
       </c>
       <c r="AT41" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.88</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT43" t="n">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>2.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU44" t="n">
         <v>2.1</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT46" t="n">
         <v>1.33</v>
@@ -10035,10 +10035,10 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU47" t="n">
         <v>1.15</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AT48" t="n">
         <v>0.33</v>
@@ -10444,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU49" t="n">
         <v>0.89</v>
@@ -10847,7 +10847,7 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT51" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>3</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>0</v>
@@ -11459,7 +11459,7 @@
         <v>2</v>
       </c>
       <c r="AT54" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AU54" t="n">
         <v>1.38</v>
@@ -11662,7 +11662,7 @@
         <v>0.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12068,7 +12068,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AU57" t="n">
         <v>1.23</v>
@@ -12471,7 +12471,7 @@
         <v>1.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT59" t="n">
         <v>2</v>
@@ -12674,7 +12674,7 @@
         <v>0</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AT60" t="n">
         <v>1.5</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13286,7 +13286,7 @@
         <v>1.33</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU63" t="n">
         <v>1.34</v>
@@ -13689,7 +13689,7 @@
         <v>0</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT65" t="n">
         <v>2</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT67" t="n">
         <v>1.67</v>
@@ -14298,10 +14298,10 @@
         <v>3</v>
       </c>
       <c r="AS68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT68" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU68" t="n">
         <v>1.9</v>
@@ -14504,7 +14504,7 @@
         <v>3</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU69" t="n">
         <v>1.85</v>
@@ -14707,7 +14707,7 @@
         <v>2.5</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU70" t="n">
         <v>1.67</v>
@@ -14910,7 +14910,7 @@
         <v>1.67</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU71" t="n">
         <v>1.3</v>
@@ -15313,7 +15313,7 @@
         <v>0.33</v>
       </c>
       <c r="AS73" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT73" t="n">
         <v>0.5</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.33</v>
@@ -16534,7 +16534,7 @@
         <v>1.75</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AU79" t="n">
         <v>1.27</v>
@@ -16737,7 +16737,7 @@
         <v>2</v>
       </c>
       <c r="AT80" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU80" t="n">
         <v>1.69</v>
@@ -17546,7 +17546,7 @@
         <v>0</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT84" t="n">
         <v>0</v>
@@ -17601,6 +17601,2848 @@
       </c>
       <c r="BK84" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>4926027</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="n">
+        <v>2</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>['70']</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>9</v>
+      </c>
+      <c r="T85" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V85" t="n">
+        <v>4</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>4926025</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>2</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>4</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['21', '45+4', '50', '86']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>6</v>
+      </c>
+      <c r="R86" t="n">
+        <v>2</v>
+      </c>
+      <c r="S86" t="n">
+        <v>8</v>
+      </c>
+      <c r="T86" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V86" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>4926024</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>7</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V87" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>4926026</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1</v>
+      </c>
+      <c r="N88" t="n">
+        <v>2</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['90+17']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>9</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>4926022</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0</v>
+      </c>
+      <c r="M89" t="n">
+        <v>2</v>
+      </c>
+      <c r="N89" t="n">
+        <v>2</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['39', '47']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>6</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>4926021</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>4926023</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45024.85416666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['40', '57', '68']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>10</v>
+      </c>
+      <c r="R91" t="n">
+        <v>3</v>
+      </c>
+      <c r="S91" t="n">
+        <v>13</v>
+      </c>
+      <c r="T91" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U91" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>5</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>18.75</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>4926028</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>2</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>3</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['24', '36']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>9</v>
+      </c>
+      <c r="T92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V92" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X92" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>4926029</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>3</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>3</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['35', '65', '73']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>9</v>
+      </c>
+      <c r="R93" t="n">
+        <v>6</v>
+      </c>
+      <c r="S93" t="n">
+        <v>15</v>
+      </c>
+      <c r="T93" t="n">
+        <v>3</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>4926030</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>1</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>8</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>12</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4926031</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45024.89583333334</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>7</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>5</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>4926032</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45024.9375</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1</v>
+      </c>
+      <c r="N96" t="n">
+        <v>4</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['56', '59', '62']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="n">
+        <v>5</v>
+      </c>
+      <c r="S96" t="n">
+        <v>8</v>
+      </c>
+      <c r="T96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V96" t="n">
+        <v>4</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4926033</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45024.97916666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>3</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['65', '71', '89']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>8</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>11</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>4926034</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45024.97916666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>0</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>12</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1</v>
+      </c>
+      <c r="S98" t="n">
+        <v>13</v>
+      </c>
+      <c r="T98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>4</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/USA MLS_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK98"/>
+  <dimension ref="A1:BK112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>3</v>
       </c>
       <c r="AT5" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>2.25</v>
@@ -2933,7 +2933,7 @@
         <v>1.75</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU18" t="n">
         <v>2.18</v>
@@ -4354,7 +4354,7 @@
         <v>2.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU19" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU21" t="n">
         <v>0.93</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT22" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT23" t="n">
         <v>0.5</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.5</v>
@@ -5569,7 +5569,7 @@
         <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5775,7 +5775,7 @@
         <v>0.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>2.5</v>
       </c>
       <c r="AT27" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU27" t="n">
         <v>2.09</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>1.85</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.7</v>
@@ -6993,7 +6993,7 @@
         <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU32" t="n">
         <v>1.43</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT33" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT40" t="n">
         <v>2.25</v>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT41" t="n">
         <v>1</v>
@@ -9023,7 +9023,7 @@
         <v>3</v>
       </c>
       <c r="AT42" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU42" t="n">
         <v>1.38</v>
@@ -9226,7 +9226,7 @@
         <v>2.5</v>
       </c>
       <c r="AT43" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU43" t="n">
         <v>2</v>
@@ -9629,10 +9629,10 @@
         <v>0</v>
       </c>
       <c r="AS45" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU45" t="n">
         <v>0</v>
@@ -9835,7 +9835,7 @@
         <v>2.5</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU46" t="n">
         <v>1.37</v>
@@ -10035,7 +10035,7 @@
         <v>0.5</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT47" t="n">
         <v>1</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU48" t="n">
         <v>1.74</v>
@@ -10644,7 +10644,7 @@
         <v>0</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>0</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU51" t="n">
         <v>0.99</v>
@@ -11050,10 +11050,10 @@
         <v>0.5</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU52" t="n">
         <v>1.33</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT54" t="n">
         <v>0.33</v>
@@ -11862,10 +11862,10 @@
         <v>0</v>
       </c>
       <c r="AS56" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU56" t="n">
         <v>0</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT57" t="n">
         <v>0.5</v>
@@ -12271,7 +12271,7 @@
         <v>1.75</v>
       </c>
       <c r="AT58" t="n">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AU58" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>1</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12877,7 +12877,7 @@
         <v>0.5</v>
       </c>
       <c r="AS61" t="n">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AT61" t="n">
         <v>0.5</v>
@@ -13080,10 +13080,10 @@
         <v>3</v>
       </c>
       <c r="AS62" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.31</v>
@@ -13283,7 +13283,7 @@
         <v>0</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AT63" t="n">
         <v>1</v>
@@ -13692,7 +13692,7 @@
         <v>0.33</v>
       </c>
       <c r="AT65" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU65" t="n">
         <v>2.67</v>
@@ -13892,10 +13892,10 @@
         <v>0.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.67</v>
+        <v>0.75</v>
       </c>
       <c r="AU66" t="n">
         <v>1.14</v>
@@ -14098,7 +14098,7 @@
         <v>1.75</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU67" t="n">
         <v>1.3</v>
@@ -14704,7 +14704,7 @@
         <v>0.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT70" t="n">
         <v>0.75</v>
@@ -14907,7 +14907,7 @@
         <v>1.5</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT71" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AU72" t="n">
         <v>1.24</v>
@@ -15516,10 +15516,10 @@
         <v>1.5</v>
       </c>
       <c r="AS74" t="n">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AT74" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15719,10 +15719,10 @@
         <v>1.5</v>
       </c>
       <c r="AS75" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT75" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU75" t="n">
         <v>1.48</v>
@@ -16328,10 +16328,10 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AU78" t="n">
         <v>1.12</v>
@@ -16531,7 +16531,7 @@
         <v>0</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AT79" t="n">
         <v>0.25</v>
@@ -16734,7 +16734,7 @@
         <v>3</v>
       </c>
       <c r="AS80" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT80" t="n">
         <v>2.25</v>
@@ -16940,7 +16940,7 @@
         <v>1.75</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AU81" t="n">
         <v>1.74</v>
@@ -17143,7 +17143,7 @@
         <v>0.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AU82" t="n">
         <v>1.36</v>
@@ -17343,10 +17343,10 @@
         <v>0</v>
       </c>
       <c r="AS83" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.68</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.58</v>
@@ -18358,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT88" t="n">
         <v>0.33</v>
@@ -18767,7 +18767,7 @@
         <v>3</v>
       </c>
       <c r="AT90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU90" t="n">
         <v>1.26</v>
@@ -19170,7 +19170,7 @@
         <v>3</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT92" t="n">
         <v>2.25</v>
@@ -20443,6 +20443,2848 @@
       </c>
       <c r="BK98" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>4926039</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>New York City</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Nashville SC</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['11', '25']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="n">
+        <v>7</v>
+      </c>
+      <c r="S99" t="n">
+        <v>10</v>
+      </c>
+      <c r="T99" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V99" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X99" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>4926037</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Montreal Impact</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>DC United</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="n">
+        <v>3</v>
+      </c>
+      <c r="S100" t="n">
+        <v>6</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X100" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>4926040</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Toronto</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Atlanta United FC</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
+      <c r="K101" t="n">
+        <v>2</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2</v>
+      </c>
+      <c r="N101" t="n">
+        <v>4</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['43', '90+4']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['4', '76']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>7</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>10</v>
+      </c>
+      <c r="T101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X101" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>4926035</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Charlotte</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Colorado Rapids</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['62', '65']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['54', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>9</v>
+      </c>
+      <c r="T102" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>4926036</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45031.85416666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Columbus Crew</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>New England Revolution</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['90+8']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>10</v>
+      </c>
+      <c r="T103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V103" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>4926038</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45031.88263888889</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>New York RB</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Houston Dynamo</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="n">
+        <v>2</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>10</v>
+      </c>
+      <c r="R104" t="n">
+        <v>0</v>
+      </c>
+      <c r="S104" t="n">
+        <v>10</v>
+      </c>
+      <c r="T104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>4926041</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Austin</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Vancouver Whitecaps</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2</v>
+      </c>
+      <c r="S105" t="n">
+        <v>8</v>
+      </c>
+      <c r="T105" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>4926042</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Chicago Fire</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Philadelphia Union</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>1</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
+      <c r="M106" t="n">
+        <v>2</v>
+      </c>
+      <c r="N106" t="n">
+        <v>4</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['19', '47']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>['62', '65']</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2</v>
+      </c>
+      <c r="S106" t="n">
+        <v>6</v>
+      </c>
+      <c r="T106" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U106" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V106" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>4926043</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>FC Dallas</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Real Salt Lake</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+      <c r="N107" t="n">
+        <v>3</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['5', '88']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['68']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>1</v>
+      </c>
+      <c r="R107" t="n">
+        <v>3</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4926044</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45031.89583333334</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Minnesota United</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>3</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['66', '88']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>8</v>
+      </c>
+      <c r="R108" t="n">
+        <v>6</v>
+      </c>
+      <c r="S108" t="n">
+        <v>14</v>
+      </c>
+      <c r="T108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="V108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>4926046</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45031.97916666666</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Portland Timbers</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Seattle Sounders</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>5</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['71', '76', '81', '89']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="n">
+        <v>7</v>
+      </c>
+      <c r="S109" t="n">
+        <v>10</v>
+      </c>
+      <c r="T109" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>4926047</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45031.97916666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>SJ Earthquakes</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Sporting KC</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>2</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>3</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>3</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>['9', '40', '51']</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>7</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="V110" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>4926045</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45031.99236111111</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>St. Louis City</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>FC Cincinnati</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>3</v>
+      </c>
+      <c r="L111" t="n">
+        <v>5</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>6</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['3', '39', '45+2', '53', '57']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>8</v>
+      </c>
+      <c r="T111" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="V111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>4926048</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>USA MLS</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45032.72916666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>LA Galaxy</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Los Angeles FC</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="n">
+        <v>5</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['41', '84']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['22', '68', '70']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>9</v>
+      </c>
+      <c r="R112" t="n">
+        <v>8</v>
+      </c>
+      <c r="S112" t="n">
+        <v>17</v>
+      </c>
+      <c r="T112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X112" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
